--- a/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
+++ b/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4E04A-96F2-477B-8170-7CD9D333FAC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BB1EC-38A0-4A49-9DE5-5C136583B373}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@@XLCUBEDDEFS@@" sheetId="10" state="veryHidden" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <author>Kleinjan, Robin</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="764">
   <si>
     <t>Ressource_Email (nvarchar(255), null)</t>
   </si>
@@ -2362,12 +2362,6 @@
     <t xml:space="preserve">Anfang </t>
   </si>
   <si>
-    <t xml:space="preserve">DimBuchungsperiode_SID </t>
-  </si>
-  <si>
-    <t>DimKostenstelle_SID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aktivitaetencode </t>
   </si>
   <si>
@@ -2426,21 +2420,6 @@
   </si>
   <si>
     <t>UrmargeProzent</t>
-  </si>
-  <si>
-    <t>DimUnterprojekt_SID</t>
-  </si>
-  <si>
-    <t>DimKonto_SID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DimKundeLieferant_SID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DimWaehrung_SID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DimZeit_SID_Buch </t>
   </si>
   <si>
     <t>Kontennr</t>
@@ -2783,6 +2762,18 @@
   </si>
   <si>
     <t>Was stellt die Spalte Ressource_KOREKat_Nr dar? Sie wird basierend auf der FaktKostensatz(Kostenkategorie) und DimRessource (Ressource_KOREKat) festgestellt - sie wird nicht geliefert werden</t>
+  </si>
+  <si>
+    <t>Wird einem Projekt kein Ressource zugewiesen?</t>
+  </si>
+  <si>
+    <t>Was sind das und werden sie nur über eine Dimension (Firma) ausgewertet?</t>
+  </si>
+  <si>
+    <t>Wird nicht je Firma unterschieden?</t>
+  </si>
+  <si>
+    <t>Niedrigste Ebene wäre eine Zeittransaktion pro Arbeitsauftrag oder sogar pro SubFibuKonto?</t>
   </si>
 </sst>
 </file>
@@ -3263,14 +3254,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3279,6 +3267,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3290,6 +3281,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3298,6 +3292,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3323,18 +3326,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3359,13 +3350,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>299973</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>98889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3708,17 +3699,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3772,7 +3763,7 @@
       <c r="B6" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="55" t="s">
         <v>371</v>
       </c>
       <c r="E6" t="s">
@@ -3892,15 +3883,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
@@ -3909,12 +3900,12 @@
       <c r="B28" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="48" t="s">
         <v>524</v>
       </c>
@@ -3935,46 +3926,46 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="48"/>
     </row>
   </sheetData>
@@ -4001,8 +3992,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,18 +4006,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4257,15 +4248,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
@@ -4274,12 +4265,12 @@
       <c r="B32" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48" t="s">
         <v>524</v>
       </c>
@@ -4300,55 +4291,55 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="48"/>
     </row>
   </sheetData>
@@ -4393,18 +4384,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4493,15 +4484,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -4510,12 +4501,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -4534,75 +4525,75 @@
       <c r="E14" s="62"/>
       <c r="F14" s="63"/>
       <c r="G14" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4630,18 +4621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4744,15 +4735,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -4761,12 +4752,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -4785,57 +4776,56 @@
       <c r="E14" s="62"/>
       <c r="F14" s="63"/>
       <c r="G14" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
@@ -4844,6 +4834,7 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4858,7 +4849,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,18 +4865,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4966,15 +4957,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -4983,12 +4974,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -5000,88 +4991,92 @@
       <c r="B14" s="49">
         <v>43413</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61" t="s">
+        <v>762</v>
+      </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5095,8 +5090,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,18 +5107,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5336,15 +5331,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
@@ -5353,12 +5348,12 @@
       <c r="B29" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="48" t="s">
         <v>524</v>
       </c>
@@ -5379,79 +5374,79 @@
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5478,18 +5473,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5669,15 +5664,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
@@ -5686,12 +5681,12 @@
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="48" t="s">
         <v>524</v>
       </c>
@@ -5714,79 +5709,79 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5800,7 +5795,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,18 +5807,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5982,15 +5977,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
@@ -5999,12 +5994,12 @@
       <c r="B20" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48" t="s">
         <v>524</v>
       </c>
@@ -6025,46 +6020,46 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
@@ -6104,18 +6099,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6207,15 +6202,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
@@ -6224,12 +6219,12 @@
       <c r="B14" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="48" t="s">
         <v>524</v>
       </c>
@@ -6250,79 +6245,79 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6347,18 +6342,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6439,15 +6434,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -6456,12 +6451,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -6474,7 +6469,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -6484,55 +6479,55 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48"/>
     </row>
   </sheetData>
@@ -6573,13 +6568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6883,8 +6878,8 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6897,20 +6892,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7064,7 +7059,7 @@
       <c r="F10" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="74" t="s">
         <v>275</v>
       </c>
       <c r="I10" t="s">
@@ -7072,73 +7067,73 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="70"/>
+      <c r="H11" s="74"/>
       <c r="I11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="70"/>
+      <c r="H12" s="74"/>
       <c r="I12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="70"/>
+      <c r="H13" s="74"/>
       <c r="I13" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="70"/>
+      <c r="H14" s="74"/>
       <c r="I14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="70"/>
+      <c r="H15" s="74"/>
       <c r="I15" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="70"/>
+      <c r="H16" s="74"/>
       <c r="I16" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="70"/>
+      <c r="H17" s="74"/>
       <c r="I17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="70"/>
+      <c r="H18" s="74"/>
       <c r="I18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="70"/>
+      <c r="H19" s="74"/>
       <c r="I19" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="70"/>
+      <c r="H20" s="74"/>
       <c r="I20" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="70"/>
+      <c r="H21" s="74"/>
       <c r="I21" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="70"/>
+      <c r="H22" s="74"/>
       <c r="I22" t="s">
         <v>273</v>
       </c>
@@ -7153,7 +7148,7 @@
       <c r="F23" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="74" t="s">
         <v>275</v>
       </c>
       <c r="I23" t="s">
@@ -7161,80 +7156,80 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="70"/>
+      <c r="H24" s="74"/>
       <c r="I24" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="70"/>
+      <c r="H25" s="74"/>
       <c r="I25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="70"/>
+      <c r="H26" s="74"/>
       <c r="I26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="70"/>
+      <c r="H27" s="74"/>
       <c r="I27" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="70"/>
+      <c r="H28" s="74"/>
       <c r="I28" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="70"/>
+      <c r="H29" s="74"/>
       <c r="I29" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="70"/>
+      <c r="H30" s="74"/>
       <c r="I30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="70"/>
+      <c r="H31" s="74"/>
       <c r="I31" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="70"/>
+      <c r="H32" s="74"/>
       <c r="I32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="70"/>
+      <c r="H33" s="74"/>
       <c r="I33" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="70"/>
+      <c r="H34" s="74"/>
       <c r="I34" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="70"/>
+      <c r="H35" s="74"/>
       <c r="I35" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E36" t="s">
         <v>432</v>
@@ -7242,7 +7237,7 @@
       <c r="F36" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="74" t="s">
         <v>275</v>
       </c>
       <c r="I36" t="s">
@@ -7250,73 +7245,73 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="70"/>
+      <c r="H37" s="74"/>
       <c r="I37" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="70"/>
+      <c r="H38" s="74"/>
       <c r="I38" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="70"/>
+      <c r="H39" s="74"/>
       <c r="I39" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H40" s="70"/>
+      <c r="H40" s="74"/>
       <c r="I40" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="70"/>
+      <c r="H41" s="74"/>
       <c r="I41" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="70"/>
+      <c r="H42" s="74"/>
       <c r="I42" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="70"/>
+      <c r="H43" s="74"/>
       <c r="I43" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="70"/>
+      <c r="H44" s="74"/>
       <c r="I44" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="70"/>
+      <c r="H45" s="74"/>
       <c r="I45" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="70"/>
+      <c r="H46" s="74"/>
       <c r="I46" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="70"/>
+      <c r="H47" s="74"/>
       <c r="I47" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H48" s="70"/>
+      <c r="H48" s="74"/>
       <c r="I48" t="s">
         <v>260</v>
       </c>
@@ -7330,16 +7325,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
@@ -7348,12 +7343,12 @@
       <c r="B54" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="50"/>
       <c r="H54" s="48" t="s">
         <v>524</v>
@@ -7376,80 +7371,75 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="52"/>
       <c r="H56" s="48"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="52"/>
       <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="50"/>
       <c r="H58" s="48"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="49"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
       <c r="G59" s="50"/>
       <c r="H59" s="48"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="50"/>
       <c r="H60" s="48"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="49"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="50"/>
       <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="49"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="50"/>
       <c r="H62" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:H22"/>
-    <mergeCell ref="H23:H35"/>
-    <mergeCell ref="H36:H48"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="C61:F61"/>
@@ -7459,6 +7449,11 @@
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H10:H22"/>
+    <mergeCell ref="H23:H35"/>
+    <mergeCell ref="H36:H48"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7471,10 +7466,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,20 +7483,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7548,34 +7543,31 @@
       <c r="B5" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>371</v>
+      </c>
       <c r="E5" t="s">
-        <v>613</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>429</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="C6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" t="s">
-        <v>371</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
         <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>219</v>
@@ -7583,13 +7575,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>628</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>219</v>
@@ -7597,13 +7589,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>632</v>
+        <v>598</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>371</v>
       </c>
       <c r="E8" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>219</v>
@@ -7611,19 +7609,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" t="s">
-        <v>371</v>
+        <v>631</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>219</v>
@@ -7631,13 +7623,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E10" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>219</v>
@@ -7645,13 +7637,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>637</v>
+        <v>625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>371</v>
       </c>
       <c r="E11" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>219</v>
@@ -7659,16 +7654,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="C12" t="s">
-        <v>371</v>
+        <v>636</v>
       </c>
       <c r="E12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>219</v>
@@ -7676,13 +7668,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E13" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>219</v>
@@ -7690,13 +7682,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>639</v>
+        <v>529</v>
+      </c>
+      <c r="C14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" t="s">
+        <v>371</v>
       </c>
       <c r="E14" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>219</v>
@@ -7704,19 +7702,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D15" t="s">
-        <v>371</v>
+        <v>638</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>630</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>219</v>
@@ -7724,13 +7716,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>640</v>
+        <v>626</v>
+      </c>
+      <c r="C16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" t="s">
+        <v>371</v>
       </c>
       <c r="E16" t="s">
-        <v>630</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>219</v>
@@ -7738,19 +7736,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C17" t="s">
         <v>371</v>
       </c>
-      <c r="D17" t="s">
-        <v>371</v>
-      </c>
       <c r="E17" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>219</v>
@@ -7758,72 +7753,76 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="C18" t="s">
         <v>371</v>
       </c>
+      <c r="D18" t="s">
+        <v>371</v>
+      </c>
       <c r="E18" t="s">
-        <v>620</v>
+        <v>429</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="C19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" t="s">
-        <v>371</v>
+        <v>640</v>
       </c>
       <c r="E19" t="s">
         <v>429</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>276</v>
+        <v>186</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E20" t="s">
-        <v>429</v>
+        <v>533</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>643</v>
+      <c r="B21" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" t="s">
+        <v>371</v>
       </c>
       <c r="E21" t="s">
-        <v>533</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>644</v>
+      <c r="B22" t="s">
+        <v>643</v>
       </c>
       <c r="C22" t="s">
         <v>371</v>
@@ -7834,45 +7833,38 @@
       <c r="E22" t="s">
         <v>429</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
       <c r="H22" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>645</v>
-      </c>
-      <c r="C23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" t="s">
-        <v>429</v>
+      <c r="B23" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>616</v>
+      <c r="B24" t="s">
+        <v>645</v>
+      </c>
+      <c r="E24" t="s">
+        <v>629</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>219</v>
@@ -7880,13 +7872,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E25" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>219</v>
@@ -7894,21 +7886,18 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>648</v>
-      </c>
-      <c r="E26" t="s">
-        <v>616</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>219</v>
+        <v>527</v>
+      </c>
+      <c r="C26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C27" t="s">
         <v>371</v>
@@ -7919,51 +7908,58 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>528</v>
-      </c>
-      <c r="C28" t="s">
-        <v>371</v>
-      </c>
-      <c r="D28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
         <v>614</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E28" t="s">
         <v>609</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>521</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>395</v>
+      </c>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="48" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="50"/>
+        <v>525</v>
+      </c>
+      <c r="B33" s="49">
+        <v>43413</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>751</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="48" t="s">
-        <v>524</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7973,87 +7969,79 @@
       <c r="B34" s="49">
         <v>43413</v>
       </c>
-      <c r="C34" s="61" t="s">
-        <v>758</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="48"/>
+      <c r="C34" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="48" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="52"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="50"/>
       <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="50"/>
       <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="50"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="53"/>
       <c r="H39" s="48"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="48"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8069,7 +8057,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="A23:F23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8083,20 +8071,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8180,7 +8168,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -8200,7 +8188,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E8" t="s">
         <v>534</v>
@@ -8214,10 +8202,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F9" t="s">
         <v>194</v>
@@ -8228,7 +8216,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E10" t="s">
         <v>533</v>
@@ -8242,10 +8230,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F11" t="s">
         <v>196</v>
@@ -8263,16 +8251,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
@@ -8281,12 +8269,12 @@
       <c r="B21" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="50"/>
       <c r="H21" s="48" t="s">
         <v>524</v>
@@ -8309,86 +8297,86 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="52"/>
       <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="52"/>
       <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="50"/>
       <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="50"/>
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="50"/>
       <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="50"/>
       <c r="H29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8401,10 +8389,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8416,20 +8404,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8486,68 +8474,122 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12" t="s">
-        <v>613</v>
+      <c r="B6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="12" t="s">
-        <v>613</v>
+      <c r="B7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="12" t="s">
-        <v>613</v>
+      <c r="B8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>655</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="12" t="s">
-        <v>613</v>
+      <c r="C11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>529</v>
+        <v>656</v>
       </c>
       <c r="C12" t="s">
         <v>371</v>
@@ -8559,47 +8601,35 @@
         <v>429</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" t="s">
-        <v>244</v>
+        <v>200</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>597</v>
-      </c>
-      <c r="C13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" t="s">
-        <v>371</v>
+        <v>657</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>245</v>
+        <v>201</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>660</v>
-      </c>
-      <c r="C14" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" t="s">
-        <v>371</v>
+        <v>658</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>630</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>219</v>
@@ -8607,13 +8637,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>630</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>219</v>
@@ -8621,19 +8651,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>626</v>
-      </c>
-      <c r="C16" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16" t="s">
-        <v>371</v>
+        <v>660</v>
       </c>
       <c r="E16" t="s">
-        <v>429</v>
+        <v>630</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>219</v>
@@ -8641,7 +8665,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="C17" t="s">
         <v>371</v>
@@ -8650,18 +8674,18 @@
         <v>371</v>
       </c>
       <c r="E17" t="s">
-        <v>609</v>
+        <v>429</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>219</v>
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="C18" t="s">
         <v>371</v>
@@ -8673,328 +8697,232 @@
         <v>429</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E19" t="s">
-        <v>630</v>
-      </c>
-      <c r="F19" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>219</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E20" t="s">
-        <v>630</v>
-      </c>
-      <c r="F20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>219</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="E21" t="s">
-        <v>630</v>
-      </c>
-      <c r="F21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E22" t="s">
-        <v>630</v>
-      </c>
-      <c r="F22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>219</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>579</v>
-      </c>
-      <c r="C23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D23" t="s">
-        <v>371</v>
+        <v>636</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>242</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>645</v>
-      </c>
-      <c r="C24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D24" t="s">
-        <v>371</v>
+        <v>669</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" t="s">
-        <v>188</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E25" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E26" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="E27" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="E29" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>676</v>
-      </c>
-      <c r="E30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>672</v>
-      </c>
-      <c r="E31" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>673</v>
-      </c>
-      <c r="E32" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>674</v>
-      </c>
-      <c r="E33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>675</v>
-      </c>
-      <c r="E34" t="s">
-        <v>670</v>
-      </c>
+      <c r="C30" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>614</v>
-      </c>
-      <c r="E35" t="s">
-        <v>609</v>
-      </c>
+      <c r="A35" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
+      <c r="A36" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="48" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" s="49">
+        <v>43413</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>521</v>
-      </c>
-      <c r="B41" s="60"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
       <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="50"/>
-      <c r="H42" s="48" t="s">
-        <v>524</v>
-      </c>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="49">
-        <v>43413</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>607</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="51"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="49"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="52"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="48"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="48"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="48"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="48"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="48"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="48"/>
-    </row>
   </sheetData>
-  <sortState ref="B5:H25">
-    <sortCondition ref="B5:B25"/>
+  <sortState ref="B5:H19">
+    <sortCondition ref="B5:B19"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9010,7 +8938,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9023,19 +8951,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9095,7 +9023,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E6" t="s">
         <v>609</v>
@@ -9103,7 +9031,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E7" t="s">
         <v>620</v>
@@ -9111,7 +9039,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E8" t="s">
         <v>620</v>
@@ -9119,7 +9047,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C9" t="s">
         <v>371</v>
@@ -9133,7 +9061,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E10" t="s">
         <v>533</v>
@@ -9176,16 +9104,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
@@ -9194,12 +9122,12 @@
       <c r="B17" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="48" t="s">
         <v>524</v>
       </c>
@@ -9220,55 +9148,55 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="48"/>
     </row>
   </sheetData>
@@ -9308,18 +9236,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9362,7 +9290,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E5" t="s">
         <v>613</v>
@@ -9370,7 +9298,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C6" t="s">
         <v>371</v>
@@ -9384,7 +9312,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -9398,7 +9326,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C8" t="s">
         <v>371</v>
@@ -9412,7 +9340,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C9" t="s">
         <v>371</v>
@@ -9426,7 +9354,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C10" t="s">
         <v>371</v>
@@ -9440,7 +9368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C11" t="s">
         <v>371</v>
@@ -9468,7 +9396,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C13" t="s">
         <v>371</v>
@@ -9496,7 +9424,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C15" t="s">
         <v>371</v>
@@ -9510,7 +9438,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E16" t="s">
         <v>533</v>
@@ -9518,7 +9446,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E17" t="s">
         <v>630</v>
@@ -9526,7 +9454,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E18" t="s">
         <v>630</v>
@@ -9534,7 +9462,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E19" t="s">
         <v>630</v>
@@ -9542,7 +9470,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E20" t="s">
         <v>630</v>
@@ -9560,15 +9488,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
@@ -9577,12 +9505,12 @@
       <c r="B27" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="48" t="s">
         <v>524</v>
       </c>
@@ -9603,46 +9531,46 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9656,15 +9584,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9679,7 +9607,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C17" sqref="C17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9689,18 +9617,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9771,7 +9699,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E7" t="s">
         <v>616</v>
@@ -9779,7 +9707,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E8" t="s">
         <v>608</v>
@@ -9787,7 +9715,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E9" t="s">
         <v>532</v>
@@ -9802,15 +9730,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
@@ -9819,12 +9747,12 @@
       <c r="B15" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="48" t="s">
         <v>524</v>
       </c>
@@ -9836,88 +9764,92 @@
       <c r="B16" s="49">
         <v>43413</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61" t="s">
+        <v>761</v>
+      </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="63"/>
-      <c r="G16" s="48"/>
+      <c r="G16" s="48" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9930,7 +9862,7 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
@@ -9943,18 +9875,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9994,7 +9926,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C5" t="s">
         <v>371</v>
@@ -10008,7 +9940,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C6" t="s">
         <v>371</v>
@@ -10022,7 +9954,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -10036,7 +9968,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C8" t="s">
         <v>371</v>
@@ -10050,7 +9982,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E9" t="s">
         <v>429</v>
@@ -10058,7 +9990,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C10" t="s">
         <v>371</v>
@@ -10086,7 +10018,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C12" t="s">
         <v>371</v>
@@ -10100,7 +10032,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C13" t="s">
         <v>371</v>
@@ -10114,7 +10046,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C14" t="s">
         <v>371</v>
@@ -10128,7 +10060,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C15" t="s">
         <v>371</v>
@@ -10142,7 +10074,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C16" t="s">
         <v>371</v>
@@ -10156,7 +10088,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C17" t="s">
         <v>371</v>
@@ -10170,7 +10102,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E18" t="s">
         <v>629</v>
@@ -10178,7 +10110,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C19" t="s">
         <v>371</v>
@@ -10192,7 +10124,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E20" t="s">
         <v>533</v>
@@ -10200,7 +10132,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E21" t="s">
         <v>630</v>
@@ -10208,7 +10140,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E22" t="s">
         <v>630</v>
@@ -10216,7 +10148,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E23" t="s">
         <v>630</v>
@@ -10224,7 +10156,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E24" t="s">
         <v>630</v>
@@ -10232,7 +10164,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E25" t="s">
         <v>613</v>
@@ -10240,7 +10172,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E26" t="s">
         <v>630</v>
@@ -10248,7 +10180,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E27" t="s">
         <v>630</v>
@@ -10256,7 +10188,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E28" t="s">
         <v>630</v>
@@ -10264,7 +10196,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E29" t="s">
         <v>630</v>
@@ -10272,7 +10204,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E30" t="s">
         <v>630</v>
@@ -10280,7 +10212,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E31" t="s">
         <v>630</v>
@@ -10288,7 +10220,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E32" t="s">
         <v>630</v>
@@ -10296,7 +10228,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E33" t="s">
         <v>630</v>
@@ -10304,7 +10236,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E34" t="s">
         <v>533</v>
@@ -10312,7 +10244,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E35" t="s">
         <v>533</v>
@@ -10320,7 +10252,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E36" t="s">
         <v>616</v>
@@ -10356,7 +10288,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E39" t="s">
         <v>429</v>
@@ -10364,7 +10296,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E40" t="s">
         <v>429</v>
@@ -10372,7 +10304,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E41" t="s">
         <v>431</v>
@@ -10380,7 +10312,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E42" t="s">
         <v>431</v>
@@ -10388,7 +10320,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C43" t="s">
         <v>371</v>
@@ -10401,15 +10333,15 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
@@ -10418,12 +10350,12 @@
       <c r="B50" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="48" t="s">
         <v>524</v>
       </c>
@@ -10444,79 +10376,79 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="49"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
       <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="49"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="49"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
       <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
       <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
     <mergeCell ref="C58:F58"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C55:F55"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10530,7 +10462,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10543,18 +10475,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10603,12 +10535,12 @@
         <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C6" t="s">
         <v>371</v>
@@ -10622,7 +10554,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -10636,34 +10568,34 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E8" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E9" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E10" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E11" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10675,15 +10607,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -10692,12 +10624,12 @@
       <c r="B18" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48" t="s">
         <v>524</v>
       </c>
@@ -10710,13 +10642,13 @@
         <v>43413</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="63"/>
       <c r="G19" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,83 +10658,83 @@
       <c r="B20" s="49">
         <v>43419</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>766</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
+      <c r="C20" s="76" t="s">
+        <v>759</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10816,7 +10748,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10827,18 +10759,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10881,7 +10813,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C5" t="s">
         <v>371</v>
@@ -10909,7 +10841,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -10923,7 +10855,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E8" t="s">
         <v>432</v>
@@ -10931,7 +10863,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E9" t="s">
         <v>432</v>
@@ -10939,7 +10871,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E10" t="s">
         <v>432</v>
@@ -10947,7 +10879,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E11" t="s">
         <v>432</v>
@@ -10955,7 +10887,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C12" t="s">
         <v>371</v>
@@ -10968,15 +10900,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -10985,12 +10917,12 @@
       <c r="B18" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48" t="s">
         <v>524</v>
       </c>
@@ -11011,79 +10943,79 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11093,8 +11025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ADBFB-9A46-478C-BEB8-D55B94070F9B}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11474,10 +11406,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D36" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -11506,6 +11438,8 @@
     <hyperlink ref="A24" location="FaktKostensatz!A1" display="FaktKostensatz" xr:uid="{C97640C8-8F82-49F9-BACD-839947F2E48D}"/>
     <hyperlink ref="A25" location="FaktSecurity_Funktionen!A1" display="FaktSecurity_Funktionen" xr:uid="{6695C9E3-3035-4594-86A1-7E8B4D90D166}"/>
     <hyperlink ref="A35" location="DimBeleg_Planner!A1" display="DimBeleg_Hauptbuch" xr:uid="{DED70036-87FD-4077-8D60-9F4C18608649}"/>
+    <hyperlink ref="A15" location="DimAktivität!A1" display="DimAktivität" xr:uid="{4DF129FF-9AF5-4207-AFA6-E1B213CFAE10}"/>
+    <hyperlink ref="A16" location="DimAbteilung!A1" display="DimAbteilung" xr:uid="{3A8B73DC-3CF0-47C0-9E47-CB7594053F11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11519,8 +11453,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11537,19 +11471,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11645,7 +11579,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -11671,7 +11605,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="E8" t="s">
         <v>532</v>
@@ -11694,7 +11628,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E9" t="s">
         <v>532</v>
@@ -11735,7 +11669,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E11" t="s">
         <v>429</v>
@@ -11758,7 +11692,7 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E12" t="s">
         <v>429</v>
@@ -11779,7 +11713,7 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E13" t="s">
         <v>429</v>
@@ -11794,7 +11728,7 @@
       <c r="I13" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="57" t="s">
         <v>52</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -11803,7 +11737,7 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E14" t="s">
         <v>431</v>
@@ -11818,14 +11752,14 @@
       <c r="I14" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J14" s="58"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E15" t="s">
         <v>431</v>
@@ -11840,7 +11774,7 @@
       <c r="I15" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="58"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="4" t="s">
         <v>278</v>
       </c>
@@ -11857,7 +11791,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C17" t="s">
         <v>371</v>
@@ -11889,7 +11823,7 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>429</v>
@@ -11928,7 +11862,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E20" t="s">
         <v>431</v>
@@ -11969,7 +11903,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E22" t="s">
         <v>429</v>
@@ -11989,7 +11923,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E23" t="s">
         <v>533</v>
@@ -12047,15 +11981,15 @@
       <c r="E27" s="13"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
@@ -12064,12 +11998,12 @@
       <c r="B33" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48" t="s">
         <v>524</v>
       </c>
@@ -12081,7 +12015,9 @@
       <c r="B34" s="49">
         <v>43413</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="61" t="s">
+        <v>760</v>
+      </c>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="63"/>
@@ -12090,73 +12026,68 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="49"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="49"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C35:F35"/>
@@ -12164,6 +12095,11 @@
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -12181,8 +12117,8 @@
   </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12198,19 +12134,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12334,7 +12270,7 @@
       <c r="H8" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="66" t="s">
         <v>285</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -12355,7 +12291,7 @@
       <c r="H9" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="65"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="7" t="s">
         <v>222</v>
       </c>
@@ -13008,7 +12944,7 @@
       <c r="H43" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="64" t="s">
+      <c r="I43" s="65" t="s">
         <v>206</v>
       </c>
       <c r="J43" s="6" t="s">
@@ -13028,7 +12964,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="33"/>
-      <c r="I44" s="64"/>
+      <c r="I44" s="65"/>
       <c r="J44" s="6" t="s">
         <v>241</v>
       </c>
@@ -13155,15 +13091,15 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
@@ -13172,12 +13108,12 @@
       <c r="B57" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
       <c r="G57" s="48" t="s">
         <v>524</v>
       </c>
@@ -13198,73 +13134,68 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="49"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
       <c r="G59" s="48"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
       <c r="G60" s="48"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="49"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="48"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="49"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="48"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="49"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="49"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="48"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="49"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="C57:F57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="C64:F64"/>
     <mergeCell ref="C65:F65"/>
@@ -13273,6 +13204,11 @@
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="C61:F61"/>
     <mergeCell ref="C62:F62"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="C57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13287,7 +13223,7 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -13303,19 +13239,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13456,7 +13392,7 @@
       <c r="G9" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="65" t="s">
         <v>206</v>
       </c>
       <c r="I9" t="s">
@@ -13476,7 +13412,7 @@
       <c r="G10" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="65"/>
       <c r="I10" t="s">
         <v>243</v>
       </c>
@@ -13649,15 +13585,15 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
@@ -13666,12 +13602,12 @@
       <c r="B28" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="48" t="s">
         <v>524</v>
       </c>
@@ -13684,13 +13620,13 @@
         <v>43413</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="63"/>
       <c r="G29" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -13700,75 +13636,70 @@
       <c r="B30" s="49">
         <v>43413</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A27:G27"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C28:F28"/>
@@ -13776,6 +13707,11 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13806,19 +13742,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14055,15 +13991,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -14072,12 +14008,12 @@
       <c r="B18" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="48" t="s">
         <v>524</v>
       </c>
@@ -14090,91 +14026,91 @@
         <v>43413</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="63"/>
       <c r="G19" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14190,7 +14126,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C30" sqref="C30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14203,18 +14139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14280,7 +14216,7 @@
         <v>604</v>
       </c>
       <c r="E7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -14336,15 +14272,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
@@ -14353,12 +14289,12 @@
       <c r="B27" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="48" t="s">
         <v>524</v>
       </c>
@@ -14370,89 +14306,89 @@
       <c r="B28" s="49">
         <v>43413</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>756</v>
-      </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78"/>
+      <c r="C28" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="48" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
@@ -14461,12 +14397,12 @@
       <c r="B42" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="48" t="s">
         <v>524</v>
       </c>
@@ -14487,68 +14423,74 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="49"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="49"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="49"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="49"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="C42:F42"/>
@@ -14564,12 +14506,6 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14596,19 +14532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14689,15 +14625,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
@@ -14706,12 +14642,12 @@
       <c r="B26" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="48" t="s">
         <v>524</v>
       </c>
@@ -14732,55 +14668,55 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="48"/>
     </row>
   </sheetData>
@@ -14934,18 +14870,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14967,6 +14903,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -14980,12 +14924,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
+++ b/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BB1EC-38A0-4A49-9DE5-5C136583B373}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752ADA5B-456E-49A4-82AE-3A44B6649025}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="18" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@@XLCUBEDDEFS@@" sheetId="10" state="veryHidden" r:id="rId1"/>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="766">
   <si>
     <t>Ressource_Email (nvarchar(255), null)</t>
   </si>
@@ -2647,9 +2647,6 @@
     <t xml:space="preserve">[System_Code] </t>
   </si>
   <si>
-    <t>Die Spalte Kostenkategorie und Kostensatztyp sehen als keine eigene Dimensionen aus?</t>
-  </si>
-  <si>
     <t>Ressourcennr</t>
   </si>
   <si>
@@ -2774,6 +2771,15 @@
   </si>
   <si>
     <t>Niedrigste Ebene wäre eine Zeittransaktion pro Arbeitsauftrag oder sogar pro SubFibuKonto?</t>
+  </si>
+  <si>
+    <t>Wird auf Unterprojekt-Ebene gemacht</t>
+  </si>
+  <si>
+    <t>Wird die Schnittstelle auch je nach dem SubFibuKonto ausgewertet?</t>
+  </si>
+  <si>
+    <t>Die Spalte Kostenkategorie und Kostensatztyp sehen als  eigene Dimensionen aus?</t>
   </si>
 </sst>
 </file>
@@ -3260,6 +3266,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3269,9 +3281,6 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3279,9 +3288,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3699,17 +3705,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3883,15 +3889,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
@@ -3900,12 +3906,12 @@
       <c r="B28" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="48" t="s">
         <v>524</v>
       </c>
@@ -3917,55 +3923,55 @@
       <c r="B29" s="49">
         <v>43413</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="48"/>
     </row>
   </sheetData>
@@ -4006,18 +4012,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4248,15 +4254,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
@@ -4265,12 +4271,12 @@
       <c r="B32" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48" t="s">
         <v>524</v>
       </c>
@@ -4282,64 +4288,64 @@
       <c r="B33" s="49">
         <v>43413</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="48"/>
     </row>
   </sheetData>
@@ -4384,18 +4390,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4484,15 +4490,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -4501,12 +4507,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -4518,82 +4524,82 @@
       <c r="B14" s="49">
         <v>43413</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4621,18 +4627,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4735,15 +4741,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -4752,12 +4758,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -4769,59 +4775,59 @@
       <c r="B14" s="49">
         <v>43413</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
     </row>
   </sheetData>
@@ -4865,18 +4871,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4957,15 +4963,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -4974,12 +4980,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -4991,92 +4997,92 @@
       <c r="B14" s="49">
         <v>43413</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>762</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="C14" s="62" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5107,18 +5113,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5331,15 +5337,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
@@ -5348,12 +5354,12 @@
       <c r="B29" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="48" t="s">
         <v>524</v>
       </c>
@@ -5365,10 +5371,10 @@
       <c r="B30" s="49">
         <v>43413</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5383,70 +5389,70 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5473,18 +5479,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5664,15 +5670,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
@@ -5681,12 +5687,12 @@
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="48" t="s">
         <v>524</v>
       </c>
@@ -5698,90 +5704,90 @@
       <c r="B26" s="49">
         <v>43413</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5807,18 +5813,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5977,15 +5983,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
@@ -5994,12 +6000,12 @@
       <c r="B20" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48" t="s">
         <v>524</v>
       </c>
@@ -6011,55 +6017,55 @@
       <c r="B21" s="49">
         <v>43413</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
@@ -6099,18 +6105,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6202,15 +6208,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
@@ -6219,12 +6225,12 @@
       <c r="B14" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="48" t="s">
         <v>524</v>
       </c>
@@ -6236,88 +6242,88 @@
       <c r="B15" s="49">
         <v>43413</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6342,18 +6348,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6434,15 +6440,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -6451,12 +6457,12 @@
       <c r="B13" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="48" t="s">
         <v>524</v>
       </c>
@@ -6468,66 +6474,66 @@
       <c r="B14" s="49">
         <v>43413</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>750</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="C14" s="62" t="s">
+        <v>749</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48"/>
     </row>
   </sheetData>
@@ -6879,7 +6885,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="B6:C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7325,16 +7331,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
@@ -7343,12 +7349,12 @@
       <c r="B54" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="50"/>
       <c r="H54" s="48" t="s">
         <v>524</v>
@@ -7361,85 +7367,90 @@
       <c r="B55" s="49">
         <v>43413</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="64"/>
       <c r="G55" s="51"/>
       <c r="H55" s="48"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="52"/>
       <c r="H56" s="48"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="52"/>
       <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="50"/>
       <c r="H58" s="48"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="49"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="50"/>
       <c r="H59" s="48"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="50"/>
       <c r="H60" s="48"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="49"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="50"/>
       <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="49"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="50"/>
       <c r="H62" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:H22"/>
+    <mergeCell ref="H23:H35"/>
+    <mergeCell ref="H36:H48"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="C61:F61"/>
@@ -7449,11 +7460,6 @@
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C58:F58"/>
-    <mergeCell ref="H10:H22"/>
-    <mergeCell ref="H23:H35"/>
-    <mergeCell ref="H36:H48"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7468,8 +7474,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7915,16 +7921,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
@@ -7933,12 +7939,12 @@
       <c r="B32" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="50"/>
       <c r="H32" s="48" t="s">
         <v>524</v>
@@ -7951,15 +7957,15 @@
       <c r="B33" s="49">
         <v>43413</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>751</v>
-      </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="C33" s="62" t="s">
+        <v>750</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="51"/>
       <c r="H33" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7970,63 +7976,63 @@
         <v>43413</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
       <c r="G34" s="52"/>
       <c r="H34" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="50"/>
       <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="50"/>
       <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="50"/>
       <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="53"/>
       <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="53"/>
       <c r="H39" s="48"/>
     </row>
@@ -8057,7 +8063,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,16 +8257,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
@@ -8269,12 +8275,12 @@
       <c r="B21" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="50"/>
       <c r="H21" s="48" t="s">
         <v>524</v>
@@ -8287,96 +8293,96 @@
       <c r="B22" s="49">
         <v>43413</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="51"/>
       <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="52"/>
       <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="52"/>
       <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="50"/>
       <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="50"/>
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="50"/>
       <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="50"/>
       <c r="H29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8391,8 +8397,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8792,16 +8798,16 @@
       <c r="C30" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
@@ -8810,12 +8816,12 @@
       <c r="B36" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="50"/>
       <c r="H36" s="48" t="s">
         <v>524</v>
@@ -8828,82 +8834,88 @@
       <c r="B37" s="49">
         <v>43413</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="62" t="s">
         <v>607</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="51"/>
       <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="A38" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="B38" s="49">
+        <v>43413</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="52"/>
       <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="52"/>
       <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="49"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="50"/>
       <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="49"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="50"/>
       <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="49"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="50"/>
       <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="49"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="50"/>
       <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="49"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="50"/>
       <c r="H44" s="48"/>
     </row>
@@ -8912,17 +8924,17 @@
     <sortCondition ref="B5:B19"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C43:F43"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8938,7 +8950,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9104,16 +9116,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
@@ -9122,12 +9134,12 @@
       <c r="B17" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="48" t="s">
         <v>524</v>
       </c>
@@ -9139,64 +9151,64 @@
       <c r="B18" s="49">
         <v>43413</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="48"/>
     </row>
   </sheetData>
@@ -9290,7 +9302,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E5" t="s">
         <v>613</v>
@@ -9298,7 +9310,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C6" t="s">
         <v>371</v>
@@ -9354,7 +9366,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C10" t="s">
         <v>371</v>
@@ -9368,7 +9380,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C11" t="s">
         <v>371</v>
@@ -9424,7 +9436,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C15" t="s">
         <v>371</v>
@@ -9488,15 +9500,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
@@ -9505,12 +9517,12 @@
       <c r="B27" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="48" t="s">
         <v>524</v>
       </c>
@@ -9522,55 +9534,55 @@
       <c r="B28" s="49">
         <v>43413</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9607,7 +9619,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+      <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9730,15 +9742,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
@@ -9747,12 +9759,12 @@
       <c r="B15" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="48" t="s">
         <v>524</v>
       </c>
@@ -9764,92 +9776,92 @@
       <c r="B16" s="49">
         <v>43413</v>
       </c>
-      <c r="C16" s="61" t="s">
-        <v>761</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="62" t="s">
+        <v>760</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9862,8 +9874,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10018,7 +10030,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C12" t="s">
         <v>371</v>
@@ -10333,15 +10345,15 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
@@ -10350,12 +10362,12 @@
       <c r="B50" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="48" t="s">
         <v>524</v>
       </c>
@@ -10367,88 +10379,92 @@
       <c r="B51" s="49">
         <v>43413</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="48"/>
+      <c r="C51" s="62" t="s">
+        <v>764</v>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="48" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="49"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="49"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="49"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="49"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="49"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
     <mergeCell ref="C58:F58"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C55:F55"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10461,8 +10477,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10587,12 +10603,12 @@
         <v>719</v>
       </c>
       <c r="E10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E11" t="s">
         <v>714</v>
@@ -10607,15 +10623,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -10624,12 +10640,12 @@
       <c r="B18" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48" t="s">
         <v>524</v>
       </c>
@@ -10641,14 +10657,14 @@
       <c r="B19" s="49">
         <v>43413</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>728</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="62" t="s">
+        <v>765</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10659,82 +10675,82 @@
         <v>43419</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
       <c r="F20" s="78"/>
       <c r="G20" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10900,15 +10916,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -10917,12 +10933,12 @@
       <c r="B18" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48" t="s">
         <v>524</v>
       </c>
@@ -10934,88 +10950,88 @@
       <c r="B19" s="49">
         <v>43413</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11406,10 +11422,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>756</v>
+      </c>
+      <c r="D36" t="s">
         <v>757</v>
-      </c>
-      <c r="D36" t="s">
-        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -11453,8 +11469,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11471,19 +11487,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11579,7 +11595,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -11605,7 +11621,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E8" t="s">
         <v>532</v>
@@ -11628,7 +11644,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E9" t="s">
         <v>532</v>
@@ -11669,7 +11685,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E11" t="s">
         <v>429</v>
@@ -11692,7 +11708,7 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E12" t="s">
         <v>429</v>
@@ -11713,7 +11729,7 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E13" t="s">
         <v>429</v>
@@ -11728,7 +11744,7 @@
       <c r="I13" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="59" t="s">
         <v>52</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -11737,7 +11753,7 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E14" t="s">
         <v>431</v>
@@ -11752,14 +11768,14 @@
       <c r="I14" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E15" t="s">
         <v>431</v>
@@ -11774,7 +11790,7 @@
       <c r="I15" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="4" t="s">
         <v>278</v>
       </c>
@@ -11791,7 +11807,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C17" t="s">
         <v>371</v>
@@ -11823,7 +11839,7 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>429</v>
@@ -11862,7 +11878,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E20" t="s">
         <v>431</v>
@@ -11903,7 +11919,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E22" t="s">
         <v>429</v>
@@ -11923,7 +11939,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E23" t="s">
         <v>533</v>
@@ -11981,15 +11997,15 @@
       <c r="E27" s="13"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
@@ -11998,12 +12014,12 @@
       <c r="B33" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48" t="s">
         <v>524</v>
       </c>
@@ -12015,79 +12031,84 @@
       <c r="B34" s="49">
         <v>43413</v>
       </c>
-      <c r="C34" s="61" t="s">
-        <v>760</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
+      <c r="C34" s="62" t="s">
+        <v>759</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="49"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="49"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C35:F35"/>
@@ -12095,11 +12116,6 @@
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -12134,19 +12150,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13091,15 +13107,15 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
@@ -13108,12 +13124,12 @@
       <c r="B57" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="48" t="s">
         <v>524</v>
       </c>
@@ -13125,77 +13141,82 @@
       <c r="B58" s="49">
         <v>43413</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="63"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
       <c r="G58" s="48"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="49"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="48"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="48"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="49"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="48"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="49"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="48"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="49"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="49"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="48"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="49"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="C57:F57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="C64:F64"/>
     <mergeCell ref="C65:F65"/>
@@ -13204,11 +13225,6 @@
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="C61:F61"/>
     <mergeCell ref="C62:F62"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="C57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13239,19 +13255,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13585,15 +13601,15 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
@@ -13602,12 +13618,12 @@
       <c r="B28" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="48" t="s">
         <v>524</v>
       </c>
@@ -13619,14 +13635,14 @@
       <c r="B29" s="49">
         <v>43413</v>
       </c>
-      <c r="C29" s="61" t="s">
-        <v>746</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
+      <c r="C29" s="62" t="s">
+        <v>745</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -13641,65 +13657,70 @@
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
       <c r="G30" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C28:F28"/>
@@ -13707,11 +13728,6 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13742,19 +13758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13991,15 +14007,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -14008,12 +14024,12 @@
       <c r="B18" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48" t="s">
         <v>524</v>
       </c>
@@ -14025,92 +14041,92 @@
       <c r="B19" s="49">
         <v>43413</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>747</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="62" t="s">
+        <v>746</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14139,18 +14155,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14216,7 +14232,7 @@
         <v>604</v>
       </c>
       <c r="E7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -14272,15 +14288,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
@@ -14289,12 +14305,12 @@
       <c r="B27" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="48" t="s">
         <v>524</v>
       </c>
@@ -14307,88 +14323,88 @@
         <v>43413</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="69"/>
       <c r="F28" s="70"/>
       <c r="G28" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
@@ -14397,12 +14413,12 @@
       <c r="B42" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="48" t="s">
         <v>524</v>
       </c>
@@ -14414,83 +14430,77 @@
       <c r="B43" s="49">
         <v>43413</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="49"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="49"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="49"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="49"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="C42:F42"/>
@@ -14506,6 +14516,12 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14532,19 +14548,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14625,15 +14641,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
@@ -14642,12 +14658,12 @@
       <c r="B26" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="48" t="s">
         <v>524</v>
       </c>
@@ -14659,64 +14675,64 @@
       <c r="B27" s="49">
         <v>43413</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
   </sheetData>
@@ -14870,18 +14886,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14903,14 +14919,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -14924,4 +14932,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
+++ b/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarkoja\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55473639-6F41-437B-BE69-A0260E2C1F08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719725AF-65F7-4531-9F0A-C2DE5112BAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@@XLCUBEDDEFS@@" sheetId="10" state="veryHidden" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="822">
   <si>
     <t>Ressource_Email (nvarchar(255), null)</t>
   </si>
@@ -2614,9 +2614,6 @@
   </si>
   <si>
     <t>Unterprojekt_DepartmentManagername</t>
-  </si>
-  <si>
-    <t>war früher nicht vorhanden</t>
   </si>
   <si>
     <t>DimKunde</t>
@@ -3168,7 +3165,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3226,6 +3223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3421,7 +3424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3530,12 +3533,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3545,6 +3542,9 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3552,6 +3552,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3596,6 +3599,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3934,12 +3938,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +3959,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:D1048576"/>
+      <selection activeCell="E6" sqref="E6:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,18 +3973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4027,7 +4031,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -4057,7 +4061,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E8" t="s">
         <v>414</v>
@@ -4065,7 +4069,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E9" t="s">
         <v>412</v>
@@ -4073,7 +4077,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E10" t="s">
         <v>415</v>
@@ -4081,7 +4085,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E11" t="s">
         <v>416</v>
@@ -4089,7 +4093,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E12" t="s">
         <v>417</v>
@@ -4097,7 +4101,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E13" t="s">
         <v>416</v>
@@ -4105,7 +4109,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E14" t="s">
         <v>416</v>
@@ -4113,7 +4117,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E15" t="s">
         <v>414</v>
@@ -4121,7 +4125,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E16" t="s">
         <v>418</v>
@@ -4129,7 +4133,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E17" t="s">
         <v>419</v>
@@ -4137,7 +4141,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E18" t="s">
         <v>420</v>
@@ -4145,7 +4149,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E19" t="s">
         <v>522</v>
@@ -4160,16 +4164,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -4178,13 +4182,13 @@
       <c r="B28" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="45" t="s">
         <v>437</v>
       </c>
@@ -4196,61 +4200,61 @@
       <c r="B29" s="46">
         <v>43413</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
   </sheetData>
@@ -4278,7 +4282,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B6:B26"/>
+      <selection activeCell="E6" sqref="E6:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,19 +4295,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4353,7 +4357,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -4364,7 +4368,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>367</v>
@@ -4378,7 +4382,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>367</v>
@@ -4389,7 +4393,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E8" t="s">
         <v>415</v>
@@ -4397,7 +4401,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E9" t="s">
         <v>415</v>
@@ -4405,7 +4409,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E10" t="s">
         <v>415</v>
@@ -4413,7 +4417,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E11" t="s">
         <v>415</v>
@@ -4421,7 +4425,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E12" t="s">
         <v>415</v>
@@ -4429,7 +4433,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E13" t="s">
         <v>415</v>
@@ -4437,7 +4441,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E14" t="s">
         <v>415</v>
@@ -4445,7 +4449,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E15" t="s">
         <v>415</v>
@@ -4453,7 +4457,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" t="s">
         <v>415</v>
@@ -4461,7 +4465,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E17" t="s">
         <v>414</v>
@@ -4469,7 +4473,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -4477,7 +4481,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E19" t="s">
         <v>517</v>
@@ -4485,7 +4489,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E20" t="s">
         <v>517</v>
@@ -4493,7 +4497,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E21" t="s">
         <v>518</v>
@@ -4501,7 +4505,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E22" t="s">
         <v>519</v>
@@ -4509,7 +4513,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E23" t="s">
         <v>518</v>
@@ -4517,7 +4521,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E24" t="s">
         <v>449</v>
@@ -4525,7 +4529,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E25" t="s">
         <v>415</v>
@@ -4540,16 +4544,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
@@ -4558,13 +4562,13 @@
       <c r="B32" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45" t="s">
         <v>437</v>
       </c>
@@ -4576,71 +4580,71 @@
       <c r="B33" s="46">
         <v>43413</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="45"/>
     </row>
   </sheetData>
@@ -4669,7 +4673,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,19 +4689,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4747,7 +4751,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -4758,7 +4762,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>367</v>
@@ -4769,7 +4773,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E7" t="s">
         <v>414</v>
@@ -4777,7 +4781,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E8" t="s">
         <v>414</v>
@@ -4792,16 +4796,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -4810,13 +4814,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -4828,11 +4832,11 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -4840,75 +4844,75 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4923,7 +4927,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A8:A9"/>
+      <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,19 +4941,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4999,7 +5003,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -5010,7 +5014,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C6" t="s">
         <v>367</v>
@@ -5024,7 +5028,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C7" t="s">
         <v>367</v>
@@ -5041,7 +5045,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E8" t="s">
         <v>415</v>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E9" t="s">
         <v>415</v>
@@ -5073,16 +5077,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -5091,13 +5095,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -5109,13 +5113,13 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -5123,51 +5127,51 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
   </sheetData>
@@ -5195,7 +5199,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,19 +5216,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5274,7 +5278,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -5296,7 +5300,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E7" t="s">
         <v>414</v>
@@ -5311,16 +5315,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -5329,13 +5333,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -5347,13 +5351,13 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -5361,86 +5365,86 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5455,7 +5459,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="B9:D9"/>
+      <selection activeCell="E6" sqref="E6:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5472,19 +5476,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5534,7 +5538,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -5545,7 +5549,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>367</v>
@@ -5559,7 +5563,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>367</v>
@@ -5570,7 +5574,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>367</v>
@@ -5581,7 +5585,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D9" t="s">
         <v>367</v>
@@ -5592,7 +5596,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E10" t="s">
         <v>414</v>
@@ -5600,7 +5604,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E11" t="s">
         <v>412</v>
@@ -5608,7 +5612,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E12" t="s">
         <v>414</v>
@@ -5616,7 +5620,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E13" t="s">
         <v>518</v>
@@ -5624,7 +5628,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E14" t="s">
         <v>412</v>
@@ -5632,7 +5636,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E15" t="s">
         <v>418</v>
@@ -5640,7 +5644,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E16" t="s">
         <v>419</v>
@@ -5648,7 +5652,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E17" t="s">
         <v>420</v>
@@ -5656,7 +5660,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E18" t="s">
         <v>412</v>
@@ -5664,7 +5668,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E19" t="s">
         <v>414</v>
@@ -5672,7 +5676,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E20" t="s">
         <v>523</v>
@@ -5680,7 +5684,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E21" t="s">
         <v>414</v>
@@ -5688,7 +5692,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E22" t="s">
         <v>518</v>
@@ -5703,16 +5707,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -5721,13 +5725,13 @@
       <c r="B29" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45" t="s">
         <v>437</v>
       </c>
@@ -5739,11 +5743,11 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5759,76 +5763,76 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5843,7 +5847,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5860,19 +5864,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5922,7 +5926,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -5933,7 +5937,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>367</v>
@@ -5947,7 +5951,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>367</v>
@@ -5958,7 +5962,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>367</v>
@@ -5969,7 +5973,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D9" t="s">
         <v>367</v>
@@ -5980,7 +5984,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E10" t="s">
         <v>414</v>
@@ -5988,7 +5992,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E11" t="s">
         <v>412</v>
@@ -5996,7 +6000,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E12" t="s">
         <v>414</v>
@@ -6004,7 +6008,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E13" t="s">
         <v>518</v>
@@ -6012,7 +6016,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E14" t="s">
         <v>412</v>
@@ -6020,7 +6024,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E15" t="s">
         <v>418</v>
@@ -6028,7 +6032,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E16" t="s">
         <v>419</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E17" t="s">
         <v>420</v>
@@ -6044,7 +6048,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E18" t="s">
         <v>412</v>
@@ -6052,7 +6056,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E19" t="s">
         <v>414</v>
@@ -6060,7 +6064,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E20" t="s">
         <v>523</v>
@@ -6068,7 +6072,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E21" t="s">
         <v>414</v>
@@ -6076,7 +6080,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E22" t="s">
         <v>518</v>
@@ -6091,16 +6095,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -6109,13 +6113,13 @@
       <c r="B29" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45" t="s">
         <v>437</v>
       </c>
@@ -6127,11 +6131,11 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6147,76 +6151,76 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6231,7 +6235,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B6" sqref="B6:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,19 +6248,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6306,7 +6310,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -6317,7 +6321,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E6" t="s">
         <v>520</v>
@@ -6325,7 +6329,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E7" t="s">
         <v>524</v>
@@ -6333,7 +6337,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E8" t="s">
         <v>524</v>
@@ -6341,7 +6345,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E9" t="s">
         <v>520</v>
@@ -6349,7 +6353,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E10" t="s">
         <v>520</v>
@@ -6357,7 +6361,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C11" t="s">
         <v>367</v>
@@ -6368,7 +6372,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C12" t="s">
         <v>367</v>
@@ -6379,7 +6383,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E13" t="s">
         <v>520</v>
@@ -6387,7 +6391,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E14" t="s">
         <v>524</v>
@@ -6395,7 +6399,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E15" t="s">
         <v>524</v>
@@ -6403,7 +6407,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E16" t="s">
         <v>415</v>
@@ -6411,7 +6415,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E17" t="s">
         <v>525</v>
@@ -6419,7 +6423,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E18" t="s">
         <v>525</v>
@@ -6427,7 +6431,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E19" t="s">
         <v>517</v>
@@ -6442,16 +6446,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
@@ -6460,13 +6464,13 @@
       <c r="B25" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45" t="s">
         <v>437</v>
       </c>
@@ -6478,98 +6482,98 @@
       <c r="B26" s="46">
         <v>43413</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6596,19 +6600,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6658,7 +6662,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -6669,7 +6673,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>367</v>
@@ -6680,7 +6684,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E7" t="s">
         <v>415</v>
@@ -6688,7 +6692,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E8" t="s">
         <v>415</v>
@@ -6696,7 +6700,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E9" t="s">
         <v>520</v>
@@ -6704,7 +6708,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D10" t="s">
         <v>367</v>
@@ -6715,7 +6719,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D11" t="s">
         <v>367</v>
@@ -6726,7 +6730,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E12" t="s">
         <v>415</v>
@@ -6734,7 +6738,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E13" t="s">
         <v>415</v>
@@ -6742,7 +6746,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E14" t="s">
         <v>415</v>
@@ -6750,7 +6754,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E15" t="s">
         <v>415</v>
@@ -6758,7 +6762,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E16" t="s">
         <v>415</v>
@@ -6773,16 +6777,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -6791,13 +6795,13 @@
       <c r="B20" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45" t="s">
         <v>437</v>
       </c>
@@ -6809,61 +6813,61 @@
       <c r="B21" s="46">
         <v>43413</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
@@ -6903,18 +6907,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7006,15 +7010,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
@@ -7023,12 +7027,12 @@
       <c r="B14" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="45" t="s">
         <v>437</v>
       </c>
@@ -7040,88 +7044,88 @@
       <c r="B15" s="46">
         <v>43413</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7459,7 +7463,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7470,19 +7474,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7532,7 +7536,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -7543,7 +7547,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>367</v>
@@ -7554,7 +7558,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E7" t="s">
         <v>414</v>
@@ -7569,16 +7573,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -7587,13 +7591,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -7605,73 +7609,73 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
@@ -7698,8 +7702,8 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7767,7 +7771,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -8157,17 +8161,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -8176,13 +8180,13 @@
       <c r="B54" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="47"/>
       <c r="I54" s="45" t="s">
         <v>437</v>
@@ -8195,98 +8199,93 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
       <c r="H55" s="48"/>
       <c r="I55" s="45"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="49"/>
       <c r="I56" s="45"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="49"/>
       <c r="I57" s="45"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="47"/>
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="47"/>
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="47"/>
       <c r="I60" s="45"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="47"/>
       <c r="I61" s="45"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="47"/>
       <c r="I62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J10:J22"/>
-    <mergeCell ref="J23:J35"/>
-    <mergeCell ref="J36:J48"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A53:I53"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
@@ -8296,6 +8295,11 @@
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
+    <mergeCell ref="J10:J22"/>
+    <mergeCell ref="J23:J35"/>
+    <mergeCell ref="J36:J48"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A53:I53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8382,7 +8386,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -8747,17 +8751,17 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -8766,13 +8770,13 @@
       <c r="B31" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="47"/>
       <c r="I31" s="45" t="s">
         <v>437</v>
@@ -8785,13 +8789,13 @@
       <c r="B32" s="46">
         <v>43413</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="48"/>
       <c r="I32" s="45" t="s">
         <v>610</v>
@@ -8819,55 +8823,55 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="47"/>
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="47"/>
       <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="47"/>
       <c r="I36" s="45"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="50"/>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="50"/>
       <c r="I38" s="45"/>
     </row>
@@ -8964,7 +8968,7 @@
         <v>637</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -9099,17 +9103,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -9118,13 +9122,13 @@
       <c r="B21" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="47"/>
       <c r="I21" s="45" t="s">
         <v>437</v>
@@ -9137,104 +9141,104 @@
       <c r="B22" s="46">
         <v>43413</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="48"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="49"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="49"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="47"/>
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="47"/>
       <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="47"/>
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="47"/>
       <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="47"/>
       <c r="I29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9318,7 +9322,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -9434,7 +9438,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C11" t="s">
         <v>367</v>
@@ -9449,7 +9453,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C12" t="s">
         <v>367</v>
@@ -9469,7 +9473,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C13" t="s">
         <v>367</v>
@@ -9489,7 +9493,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C14" t="s">
         <v>367</v>
@@ -9504,7 +9508,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C15" t="s">
         <v>367</v>
@@ -9524,7 +9528,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C16" t="s">
         <v>367</v>
@@ -9727,17 +9731,17 @@
       <c r="C34" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
@@ -9746,13 +9750,13 @@
       <c r="B40" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="47"/>
       <c r="I40" s="45" t="s">
         <v>437</v>
@@ -9765,13 +9769,13 @@
       <c r="B41" s="46">
         <v>43413</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
       <c r="H41" s="48"/>
       <c r="I41" s="45"/>
     </row>
@@ -9795,66 +9799,66 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="49"/>
       <c r="I43" s="45"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
       <c r="H44" s="47"/>
       <c r="I44" s="45"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="47"/>
       <c r="I45" s="45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="47"/>
       <c r="I46" s="45"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="47"/>
       <c r="I47" s="45"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="47"/>
       <c r="I48" s="45"/>
     </row>
@@ -9863,17 +9867,17 @@
     <sortCondition ref="B5:B23"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9958,7 +9962,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -10064,17 +10068,17 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
@@ -10083,13 +10087,13 @@
       <c r="B17" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45" t="s">
         <v>437</v>
       </c>
@@ -10101,71 +10105,71 @@
       <c r="B18" s="46">
         <v>43413</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
   </sheetData>
@@ -10457,15 +10461,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -10474,12 +10478,12 @@
       <c r="B27" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="45" t="s">
         <v>437</v>
       </c>
@@ -10491,55 +10495,55 @@
       <c r="B28" s="46">
         <v>43413</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10641,7 +10645,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -10703,16 +10707,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
@@ -10721,13 +10725,13 @@
       <c r="B15" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="45" t="s">
         <v>437</v>
       </c>
@@ -10739,13 +10743,13 @@
       <c r="B16" s="46">
         <v>43413</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="45" t="s">
         <v>610</v>
       </c>
@@ -10753,86 +10757,86 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10912,7 +10916,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -10923,7 +10927,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C5" t="s">
         <v>367</v>
@@ -10951,7 +10955,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C7" t="s">
         <v>367</v>
@@ -10979,7 +10983,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E9" t="s">
         <v>412</v>
@@ -10987,7 +10991,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C10" t="s">
         <v>367</v>
@@ -11015,7 +11019,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C12" t="s">
         <v>367</v>
@@ -11057,7 +11061,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C15" t="s">
         <v>367</v>
@@ -11107,7 +11111,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E19" t="s">
         <v>446</v>
@@ -11115,7 +11119,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E20" t="s">
         <v>536</v>
@@ -11123,7 +11127,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E21" t="s">
         <v>536</v>
@@ -11131,7 +11135,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E22" t="s">
         <v>536</v>
@@ -11139,7 +11143,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E23" t="s">
         <v>536</v>
@@ -11147,7 +11151,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E24" t="s">
         <v>520</v>
@@ -11155,7 +11159,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E25" t="s">
         <v>536</v>
@@ -11163,7 +11167,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E26" t="s">
         <v>536</v>
@@ -11171,7 +11175,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E27" t="s">
         <v>536</v>
@@ -11179,7 +11183,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E28" t="s">
         <v>536</v>
@@ -11187,7 +11191,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E29" t="s">
         <v>536</v>
@@ -11195,7 +11199,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E30" t="s">
         <v>536</v>
@@ -11203,7 +11207,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E31" t="s">
         <v>536</v>
@@ -11211,7 +11215,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E32" t="s">
         <v>536</v>
@@ -11219,7 +11223,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E33" t="s">
         <v>446</v>
@@ -11227,7 +11231,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E34" t="s">
         <v>446</v>
@@ -11243,7 +11247,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C36" t="s">
         <v>367</v>
@@ -11257,7 +11261,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C37" t="s">
         <v>367</v>
@@ -11271,7 +11275,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C38" t="s">
         <v>367</v>
@@ -11285,7 +11289,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C39" t="s">
         <v>367</v>
@@ -11299,7 +11303,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C40" t="s">
         <v>367</v>
@@ -11313,7 +11317,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C41" t="s">
         <v>367</v>
@@ -11327,7 +11331,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E42" t="s">
         <v>412</v>
@@ -11343,7 +11347,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E44" t="s">
         <v>414</v>
@@ -11351,7 +11355,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E45" t="s">
         <v>414</v>
@@ -11380,16 +11384,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -11398,13 +11402,13 @@
       <c r="B54" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="45" t="s">
         <v>437</v>
       </c>
@@ -11416,13 +11420,13 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
       <c r="H55" s="45" t="s">
         <v>610</v>
       </c>
@@ -11430,86 +11434,86 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11669,15 +11673,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -11686,12 +11690,12 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="45" t="s">
         <v>437</v>
       </c>
@@ -11703,12 +11707,12 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="45" t="s">
         <v>610</v>
       </c>
@@ -11733,70 +11737,70 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11806,8 +11810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ADBFB-9A46-478C-BEB8-D55B94070F9B}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11913,7 +11917,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -12005,7 +12009,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>381</v>
@@ -12017,7 +12021,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>381</v>
@@ -12339,7 +12343,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -12350,7 +12354,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C5" t="s">
         <v>367</v>
@@ -12392,7 +12396,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E8" t="s">
         <v>415</v>
@@ -12400,7 +12404,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E9" t="s">
         <v>415</v>
@@ -12408,7 +12412,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E10" t="s">
         <v>415</v>
@@ -12416,7 +12420,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E11" t="s">
         <v>415</v>
@@ -12424,7 +12428,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
         <v>367</v>
@@ -12437,16 +12441,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -12455,13 +12459,13 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45" t="s">
         <v>437</v>
       </c>
@@ -12473,96 +12477,96 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12588,7 +12592,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12605,20 +12609,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12671,7 +12675,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
@@ -12865,7 +12869,7 @@
       <c r="J13" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="60" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -12890,7 +12894,7 @@
       <c r="J14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="62"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="4" t="s">
         <v>276</v>
       </c>
@@ -12913,7 +12917,7 @@
       <c r="J15" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="4" t="s">
         <v>276</v>
       </c>
@@ -13119,16 +13123,16 @@
       <c r="F27" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
@@ -13137,13 +13141,13 @@
       <c r="B33" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45" t="s">
         <v>437</v>
       </c>
@@ -13155,92 +13159,87 @@
       <c r="B34" s="46">
         <v>43413</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="64" t="s">
         <v>625</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C35:G35"/>
@@ -13248,6 +13247,11 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -13265,8 +13269,8 @@
   </sheetPr>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13282,20 +13286,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13348,7 +13352,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -13803,8 +13807,8 @@
       <c r="B28" t="s">
         <v>638</v>
       </c>
-      <c r="E28" t="s">
-        <v>684</v>
+      <c r="E28" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H28" s="33"/>
     </row>
@@ -13812,8 +13816,8 @@
       <c r="B29" t="s">
         <v>639</v>
       </c>
-      <c r="E29" t="s">
-        <v>684</v>
+      <c r="E29" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H29" s="33"/>
     </row>
@@ -13821,8 +13825,8 @@
       <c r="B30" t="s">
         <v>640</v>
       </c>
-      <c r="E30" t="s">
-        <v>684</v>
+      <c r="E30" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H30" s="33"/>
     </row>
@@ -13830,8 +13834,8 @@
       <c r="B31" t="s">
         <v>641</v>
       </c>
-      <c r="E31" t="s">
-        <v>684</v>
+      <c r="E31" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H31" s="33"/>
     </row>
@@ -13839,8 +13843,8 @@
       <c r="B32" t="s">
         <v>642</v>
       </c>
-      <c r="E32" t="s">
-        <v>684</v>
+      <c r="E32" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H32" s="33"/>
     </row>
@@ -13848,8 +13852,8 @@
       <c r="B33" t="s">
         <v>643</v>
       </c>
-      <c r="E33" t="s">
-        <v>684</v>
+      <c r="E33" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H33" s="33"/>
     </row>
@@ -13857,8 +13861,8 @@
       <c r="B34" t="s">
         <v>644</v>
       </c>
-      <c r="E34" t="s">
-        <v>684</v>
+      <c r="E34" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H34" s="33"/>
     </row>
@@ -13866,8 +13870,8 @@
       <c r="B35" t="s">
         <v>645</v>
       </c>
-      <c r="E35" t="s">
-        <v>684</v>
+      <c r="E35" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H35" s="33"/>
     </row>
@@ -13875,8 +13879,8 @@
       <c r="B36" t="s">
         <v>646</v>
       </c>
-      <c r="E36" t="s">
-        <v>684</v>
+      <c r="E36" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H36" s="33"/>
     </row>
@@ -13884,8 +13888,8 @@
       <c r="B37" t="s">
         <v>647</v>
       </c>
-      <c r="E37" t="s">
-        <v>684</v>
+      <c r="E37" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H37" s="33"/>
     </row>
@@ -13893,8 +13897,8 @@
       <c r="B38" t="s">
         <v>648</v>
       </c>
-      <c r="E38" t="s">
-        <v>684</v>
+      <c r="E38" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H38" s="33"/>
     </row>
@@ -13902,8 +13906,8 @@
       <c r="B39" t="s">
         <v>649</v>
       </c>
-      <c r="E39" t="s">
-        <v>684</v>
+      <c r="E39" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H39" s="33"/>
     </row>
@@ -13911,8 +13915,8 @@
       <c r="B40" t="s">
         <v>650</v>
       </c>
-      <c r="E40" t="s">
-        <v>684</v>
+      <c r="E40" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H40" s="33"/>
     </row>
@@ -13920,8 +13924,8 @@
       <c r="B41" t="s">
         <v>651</v>
       </c>
-      <c r="E41" t="s">
-        <v>684</v>
+      <c r="E41" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H41" s="33"/>
     </row>
@@ -13929,8 +13933,8 @@
       <c r="B42" t="s">
         <v>652</v>
       </c>
-      <c r="E42" t="s">
-        <v>684</v>
+      <c r="E42" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H42" s="33"/>
     </row>
@@ -13938,8 +13942,8 @@
       <c r="B43" t="s">
         <v>653</v>
       </c>
-      <c r="E43" t="s">
-        <v>684</v>
+      <c r="E43" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H43" s="33"/>
     </row>
@@ -13947,8 +13951,8 @@
       <c r="B44" t="s">
         <v>654</v>
       </c>
-      <c r="E44" t="s">
-        <v>684</v>
+      <c r="E44" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H44" s="33"/>
     </row>
@@ -13956,8 +13960,8 @@
       <c r="B45" t="s">
         <v>655</v>
       </c>
-      <c r="E45" t="s">
-        <v>684</v>
+      <c r="E45" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H45" s="33"/>
     </row>
@@ -13965,8 +13969,8 @@
       <c r="B46" t="s">
         <v>656</v>
       </c>
-      <c r="E46" t="s">
-        <v>684</v>
+      <c r="E46" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H46" s="33"/>
     </row>
@@ -13974,8 +13978,8 @@
       <c r="B47" t="s">
         <v>657</v>
       </c>
-      <c r="E47" t="s">
-        <v>684</v>
+      <c r="E47" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H47" s="33"/>
     </row>
@@ -13983,8 +13987,8 @@
       <c r="B48" t="s">
         <v>658</v>
       </c>
-      <c r="E48" t="s">
-        <v>684</v>
+      <c r="E48" s="82" t="s">
+        <v>412</v>
       </c>
       <c r="H48" s="33"/>
     </row>
@@ -13992,8 +13996,8 @@
       <c r="B49" t="s">
         <v>659</v>
       </c>
-      <c r="E49" t="s">
-        <v>684</v>
+      <c r="E49" s="82" t="s">
+        <v>414</v>
       </c>
       <c r="H49" s="33"/>
     </row>
@@ -14448,16 +14452,16 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
@@ -14466,13 +14470,13 @@
       <c r="B79" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="45" t="s">
         <v>437</v>
       </c>
@@ -14484,90 +14488,85 @@
       <c r="B80" s="46">
         <v>43413</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="67"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="66"/>
       <c r="H80" s="45"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="45"/>
       <c r="B81" s="46"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="45"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
       <c r="B83" s="46"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="45"/>
       <c r="B84" s="46"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="45"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="45"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="46"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="45"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="45"/>
       <c r="B87" s="46"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:G79"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C87:G87"/>
@@ -14576,6 +14575,11 @@
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C84:G84"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14590,8 +14594,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14606,20 +14610,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14672,7 +14676,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -14897,192 +14901,192 @@
       <c r="B17" t="s">
         <v>662</v>
       </c>
-      <c r="E17" t="s">
-        <v>684</v>
+      <c r="E17" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>663</v>
       </c>
-      <c r="E18" t="s">
-        <v>684</v>
+      <c r="E18" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>632</v>
       </c>
-      <c r="E19" t="s">
-        <v>684</v>
+      <c r="E19" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>633</v>
       </c>
-      <c r="E20" t="s">
-        <v>684</v>
+      <c r="E20" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>664</v>
       </c>
-      <c r="E21" t="s">
-        <v>684</v>
+      <c r="E21" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>665</v>
       </c>
-      <c r="E22" t="s">
-        <v>684</v>
+      <c r="E22" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>666</v>
       </c>
-      <c r="E23" t="s">
-        <v>684</v>
+      <c r="E23" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>667</v>
       </c>
-      <c r="E24" t="s">
-        <v>684</v>
+      <c r="E24" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>668</v>
       </c>
-      <c r="E25" t="s">
-        <v>684</v>
+      <c r="E25" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>669</v>
       </c>
-      <c r="E26" t="s">
-        <v>684</v>
+      <c r="E26" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>670</v>
       </c>
-      <c r="E27" t="s">
-        <v>684</v>
+      <c r="E27" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>671</v>
       </c>
-      <c r="E28" t="s">
-        <v>684</v>
+      <c r="E28" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>672</v>
       </c>
-      <c r="E29" t="s">
-        <v>684</v>
+      <c r="E29" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>673</v>
       </c>
-      <c r="E30" t="s">
-        <v>684</v>
+      <c r="E30" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>674</v>
       </c>
-      <c r="E31" t="s">
-        <v>684</v>
+      <c r="E31" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>675</v>
       </c>
-      <c r="E32" t="s">
-        <v>684</v>
+      <c r="E32" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>676</v>
       </c>
-      <c r="E33" t="s">
-        <v>684</v>
+      <c r="E33" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>677</v>
       </c>
-      <c r="E34" t="s">
-        <v>684</v>
+      <c r="E34" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>678</v>
       </c>
-      <c r="E35" t="s">
-        <v>684</v>
+      <c r="E35" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>679</v>
       </c>
-      <c r="E36" t="s">
-        <v>684</v>
+      <c r="E36" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>680</v>
       </c>
-      <c r="E37" t="s">
-        <v>684</v>
+      <c r="E37" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>681</v>
       </c>
-      <c r="E38" t="s">
-        <v>684</v>
+      <c r="E38" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>682</v>
       </c>
-      <c r="E39" t="s">
-        <v>684</v>
+      <c r="E39" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>683</v>
       </c>
-      <c r="E40" t="s">
-        <v>684</v>
+      <c r="E40" s="82" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -15151,16 +15155,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
@@ -15169,13 +15173,13 @@
       <c r="B52" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="45" t="s">
         <v>437</v>
       </c>
@@ -15187,13 +15191,13 @@
       <c r="B53" s="46">
         <v>43413</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
       <c r="H53" s="45" t="s">
         <v>610</v>
       </c>
@@ -15217,61 +15221,61 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="46"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="45"/>
     </row>
   </sheetData>
@@ -15303,7 +15307,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B14"/>
+      <selection activeCell="E6" sqref="E6:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15318,20 +15322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15384,7 +15388,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -15576,16 +15580,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -15594,13 +15598,13 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45" t="s">
         <v>437</v>
       </c>
@@ -15612,13 +15616,13 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="45" t="s">
         <v>610</v>
       </c>
@@ -15626,86 +15630,86 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15721,7 +15725,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="E6" sqref="E6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15734,19 +15738,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15796,7 +15800,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -15877,16 +15881,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -15895,13 +15899,13 @@
       <c r="B27" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="45" t="s">
         <v>437</v>
       </c>
@@ -15927,84 +15931,84 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
@@ -16013,13 +16017,13 @@
       <c r="B42" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="45" t="s">
         <v>437</v>
       </c>
@@ -16031,85 +16035,91 @@
       <c r="B43" s="46">
         <v>43413</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="C42:G42"/>
@@ -16125,12 +16135,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16157,18 +16161,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16218,7 +16222,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -16255,16 +16259,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
@@ -16273,13 +16277,13 @@
       <c r="B26" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45" t="s">
         <v>437</v>
       </c>
@@ -16291,71 +16295,71 @@
       <c r="B27" s="46">
         <v>43413</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
@@ -16377,21 +16381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100119983B47978C24F92F824E7F8E3251D" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7ba5a235956e7fb7474612379ff3b739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="389ffc60-4789-4cbf-b926-44d574625ca7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9c5a6660c0d4ba68653274d105358c3" ns2:_="">
     <xsd:import namespace="389ffc60-4789-4cbf-b926-44d574625ca7"/>
@@ -16523,31 +16512,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="389ffc60-4789-4cbf-b926-44d574625ca7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92D4260-15CC-44EF-8FF4-B4AD2EC272CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16563,4 +16543,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="389ffc60-4789-4cbf-b926-44d574625ca7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
+++ b/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarkoja\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719725AF-65F7-4531-9F0A-C2DE5112BAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6BB98-2ADE-4AB4-8346-158218B74823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@@XLCUBEDDEFS@@" sheetId="10" state="veryHidden" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="822">
   <si>
     <t>Ressource_Email (nvarchar(255), null)</t>
   </si>
@@ -3530,8 +3530,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3542,9 +3549,6 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3552,9 +3556,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3599,7 +3600,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3973,18 +3973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4164,16 +4164,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -4182,13 +4182,13 @@
       <c r="B28" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="45" t="s">
         <v>437</v>
       </c>
@@ -4200,61 +4200,61 @@
       <c r="B29" s="46">
         <v>43413</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="45"/>
     </row>
   </sheetData>
@@ -4295,19 +4295,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4544,16 +4544,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
@@ -4562,13 +4562,13 @@
       <c r="B32" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="45" t="s">
         <v>437</v>
       </c>
@@ -4580,71 +4580,71 @@
       <c r="B33" s="46">
         <v>43413</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="45"/>
     </row>
   </sheetData>
@@ -4689,19 +4689,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4796,16 +4796,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -4814,13 +4814,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -4832,11 +4832,11 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -4844,75 +4844,75 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4941,19 +4941,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5077,16 +5077,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -5095,13 +5095,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -5113,13 +5113,13 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -5127,51 +5127,51 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="45"/>
     </row>
   </sheetData>
@@ -5216,19 +5216,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5315,16 +5315,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -5333,13 +5333,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -5351,13 +5351,13 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>627</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -5365,86 +5365,86 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5476,19 +5476,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5707,16 +5707,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -5725,13 +5725,13 @@
       <c r="B29" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="45" t="s">
         <v>437</v>
       </c>
@@ -5743,96 +5743,96 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5864,19 +5864,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6095,16 +6095,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -6113,13 +6113,13 @@
       <c r="B29" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="45" t="s">
         <v>437</v>
       </c>
@@ -6131,96 +6131,96 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6248,19 +6248,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6446,16 +6446,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
@@ -6464,13 +6464,13 @@
       <c r="B25" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="45" t="s">
         <v>437</v>
       </c>
@@ -6482,98 +6482,98 @@
       <c r="B26" s="46">
         <v>43413</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6600,19 +6600,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6777,16 +6777,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -6795,13 +6795,13 @@
       <c r="B20" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="45" t="s">
         <v>437</v>
       </c>
@@ -6813,61 +6813,61 @@
       <c r="B21" s="46">
         <v>43413</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
@@ -6907,18 +6907,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7010,15 +7010,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
@@ -7027,12 +7027,12 @@
       <c r="B14" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="45" t="s">
         <v>437</v>
       </c>
@@ -7044,88 +7044,88 @@
       <c r="B15" s="46">
         <v>43413</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7152,13 +7152,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -7474,19 +7474,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7573,16 +7573,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -7591,13 +7591,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -7609,73 +7609,73 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>615</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
@@ -7702,7 +7702,7 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
@@ -7716,21 +7716,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7895,7 +7895,7 @@
       <c r="G10" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="78" t="s">
         <v>273</v>
       </c>
       <c r="K10" t="s">
@@ -7903,73 +7903,73 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J11" s="77"/>
+      <c r="J11" s="78"/>
       <c r="K11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J12" s="77"/>
+      <c r="J12" s="78"/>
       <c r="K12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J13" s="77"/>
+      <c r="J13" s="78"/>
       <c r="K13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="77"/>
+      <c r="J14" s="78"/>
       <c r="K14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J15" s="77"/>
+      <c r="J15" s="78"/>
       <c r="K15" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J16" s="77"/>
+      <c r="J16" s="78"/>
       <c r="K16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="77"/>
+      <c r="J17" s="78"/>
       <c r="K17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="77"/>
+      <c r="J18" s="78"/>
       <c r="K18" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="77"/>
+      <c r="J19" s="78"/>
       <c r="K19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="77"/>
+      <c r="J20" s="78"/>
       <c r="K20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="77"/>
+      <c r="J21" s="78"/>
       <c r="K21" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="77"/>
+      <c r="J22" s="78"/>
       <c r="K22" t="s">
         <v>271</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="G23" t="s">
         <v>154</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="78" t="s">
         <v>273</v>
       </c>
       <c r="K23" t="s">
@@ -7992,73 +7992,73 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="77"/>
+      <c r="J25" s="78"/>
       <c r="K25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="77"/>
+      <c r="J26" s="78"/>
       <c r="K26" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="77"/>
+      <c r="J27" s="78"/>
       <c r="K27" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="77"/>
+      <c r="J28" s="78"/>
       <c r="K28" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="77"/>
+      <c r="J29" s="78"/>
       <c r="K29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="77"/>
+      <c r="J30" s="78"/>
       <c r="K30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="77"/>
+      <c r="J31" s="78"/>
       <c r="K31" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="77"/>
+      <c r="J32" s="78"/>
       <c r="K32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="77"/>
+      <c r="J33" s="78"/>
       <c r="K33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="77"/>
+      <c r="J34" s="78"/>
       <c r="K34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="77"/>
+      <c r="J35" s="78"/>
       <c r="K35" t="s">
         <v>258</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="G36" t="s">
         <v>155</v>
       </c>
-      <c r="J36" s="77" t="s">
+      <c r="J36" s="78" t="s">
         <v>273</v>
       </c>
       <c r="K36" t="s">
@@ -8081,73 +8081,73 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="77"/>
+      <c r="J37" s="78"/>
       <c r="K37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="77"/>
+      <c r="J38" s="78"/>
       <c r="K38" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="77"/>
+      <c r="J39" s="78"/>
       <c r="K39" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="77"/>
+      <c r="J40" s="78"/>
       <c r="K40" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="77"/>
+      <c r="J41" s="78"/>
       <c r="K41" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="77"/>
+      <c r="J42" s="78"/>
       <c r="K42" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="77"/>
+      <c r="J43" s="78"/>
       <c r="K43" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="77"/>
+      <c r="J44" s="78"/>
       <c r="K44" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="77"/>
+      <c r="J45" s="78"/>
       <c r="K45" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="77"/>
+      <c r="J46" s="78"/>
       <c r="K46" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J47" s="77"/>
+      <c r="J47" s="78"/>
       <c r="K47" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="77"/>
+      <c r="J48" s="78"/>
       <c r="K48" t="s">
         <v>258</v>
       </c>
@@ -8161,17 +8161,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -8180,13 +8180,13 @@
       <c r="B54" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="47"/>
       <c r="I54" s="45" t="s">
         <v>437</v>
@@ -8199,93 +8199,98 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="48"/>
       <c r="I55" s="45"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="49"/>
       <c r="I56" s="45"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="49"/>
       <c r="I57" s="45"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="47"/>
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="47"/>
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="47"/>
       <c r="I60" s="45"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="47"/>
       <c r="I61" s="45"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="47"/>
       <c r="I62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J10:J22"/>
+    <mergeCell ref="J23:J35"/>
+    <mergeCell ref="J36:J48"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A53:I53"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
@@ -8295,11 +8300,6 @@
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
-    <mergeCell ref="J10:J22"/>
-    <mergeCell ref="J23:J35"/>
-    <mergeCell ref="J36:J48"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A53:I53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8315,7 +8315,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B27"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8329,21 +8329,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8751,17 +8751,17 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -8770,13 +8770,13 @@
       <c r="B31" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="47"/>
       <c r="I31" s="45" t="s">
         <v>437</v>
@@ -8789,13 +8789,13 @@
       <c r="B32" s="46">
         <v>43413</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="48"/>
       <c r="I32" s="45" t="s">
         <v>610</v>
@@ -8808,13 +8808,13 @@
       <c r="B33" s="46">
         <v>43413</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="71" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="49"/>
       <c r="I33" s="45" t="s">
         <v>610</v>
@@ -8823,55 +8823,55 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="47"/>
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="47"/>
       <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="47"/>
       <c r="I36" s="45"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="50"/>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="50"/>
       <c r="I38" s="45"/>
     </row>
@@ -8916,21 +8916,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9103,17 +9103,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -9122,13 +9122,13 @@
       <c r="B21" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="47"/>
       <c r="I21" s="45" t="s">
         <v>437</v>
@@ -9141,104 +9141,104 @@
       <c r="B22" s="46">
         <v>43413</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="48"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="49"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="49"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="47"/>
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="47"/>
       <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="47"/>
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="47"/>
       <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="47"/>
       <c r="I29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9266,21 +9266,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9731,17 +9731,17 @@
       <c r="C34" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
@@ -9750,13 +9750,13 @@
       <c r="B40" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="47"/>
       <c r="I40" s="45" t="s">
         <v>437</v>
@@ -9769,13 +9769,13 @@
       <c r="B41" s="46">
         <v>43413</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="48"/>
       <c r="I41" s="45"/>
     </row>
@@ -9786,79 +9786,79 @@
       <c r="B42" s="46">
         <v>43413</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="71" t="s">
         <v>629</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="49"/>
       <c r="I42" s="45"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="49"/>
       <c r="I43" s="45"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="47"/>
       <c r="I44" s="45"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="47"/>
       <c r="I45" s="45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="47"/>
       <c r="I46" s="45"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="47"/>
       <c r="I47" s="45"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="47"/>
       <c r="I48" s="45"/>
     </row>
@@ -9867,17 +9867,17 @@
     <sortCondition ref="B5:B23"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9907,20 +9907,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10068,17 +10068,17 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
@@ -10087,13 +10087,13 @@
       <c r="B17" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="45" t="s">
         <v>437</v>
       </c>
@@ -10105,71 +10105,71 @@
       <c r="B18" s="46">
         <v>43413</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="45"/>
     </row>
   </sheetData>
@@ -10209,18 +10209,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10461,15 +10461,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -10478,12 +10478,12 @@
       <c r="B27" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="45" t="s">
         <v>437</v>
       </c>
@@ -10495,55 +10495,55 @@
       <c r="B28" s="46">
         <v>43413</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10591,19 +10591,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10707,16 +10707,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
@@ -10725,13 +10725,13 @@
       <c r="B15" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="45" t="s">
         <v>437</v>
       </c>
@@ -10743,13 +10743,13 @@
       <c r="B16" s="46">
         <v>43413</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>626</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="45" t="s">
         <v>610</v>
       </c>
@@ -10757,86 +10757,86 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10865,19 +10865,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11384,16 +11384,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -11402,13 +11402,13 @@
       <c r="B54" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="45" t="s">
         <v>437</v>
       </c>
@@ -11420,13 +11420,13 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="66" t="s">
         <v>630</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="45" t="s">
         <v>610</v>
       </c>
@@ -11434,86 +11434,86 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11541,18 +11541,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11673,15 +11673,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -11690,12 +11690,12 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="45" t="s">
         <v>437</v>
       </c>
@@ -11707,12 +11707,12 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="45" t="s">
         <v>610</v>
       </c>
@@ -11724,12 +11724,12 @@
       <c r="B20" s="46">
         <v>43419</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="80" t="s">
         <v>624</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="45" t="s">
         <v>610</v>
       </c>
@@ -11737,70 +11737,70 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11810,8 +11810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ADBFB-9A46-478C-BEB8-D55B94070F9B}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11919,7 +11919,9 @@
       <c r="A6" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="37" t="s">
+        <v>381</v>
+      </c>
       <c r="C6" s="37"/>
       <c r="D6" s="44"/>
       <c r="E6" s="38"/>
@@ -12289,19 +12291,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12441,16 +12443,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -12459,13 +12461,13 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="45" t="s">
         <v>437</v>
       </c>
@@ -12477,96 +12479,96 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12609,20 +12611,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12869,7 +12871,7 @@
       <c r="J13" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -12894,7 +12896,7 @@
       <c r="J14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="60"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="4" t="s">
         <v>276</v>
       </c>
@@ -12917,7 +12919,7 @@
       <c r="J15" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="60"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="4" t="s">
         <v>276</v>
       </c>
@@ -13123,16 +13125,16 @@
       <c r="F27" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
@@ -13141,13 +13143,13 @@
       <c r="B33" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45" t="s">
         <v>437</v>
       </c>
@@ -13159,87 +13161,92 @@
       <c r="B34" s="46">
         <v>43413</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="66" t="s">
         <v>625</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C35:G35"/>
@@ -13247,11 +13254,6 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -13269,8 +13271,8 @@
   </sheetPr>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13286,20 +13288,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13426,7 +13428,7 @@
       <c r="I8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="70" t="s">
         <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -13447,7 +13449,7 @@
       <c r="I9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="7" t="s">
         <v>220</v>
       </c>
@@ -13807,7 +13809,7 @@
       <c r="B28" t="s">
         <v>638</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H28" s="33"/>
@@ -13816,7 +13818,7 @@
       <c r="B29" t="s">
         <v>639</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H29" s="33"/>
@@ -13825,7 +13827,7 @@
       <c r="B30" t="s">
         <v>640</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H30" s="33"/>
@@ -13834,7 +13836,7 @@
       <c r="B31" t="s">
         <v>641</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H31" s="33"/>
@@ -13843,7 +13845,7 @@
       <c r="B32" t="s">
         <v>642</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H32" s="33"/>
@@ -13852,7 +13854,7 @@
       <c r="B33" t="s">
         <v>643</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H33" s="33"/>
@@ -13861,7 +13863,7 @@
       <c r="B34" t="s">
         <v>644</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H34" s="33"/>
@@ -13870,7 +13872,7 @@
       <c r="B35" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H35" s="33"/>
@@ -13879,7 +13881,7 @@
       <c r="B36" t="s">
         <v>646</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H36" s="33"/>
@@ -13888,7 +13890,7 @@
       <c r="B37" t="s">
         <v>647</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H37" s="33"/>
@@ -13897,7 +13899,7 @@
       <c r="B38" t="s">
         <v>648</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="33"/>
@@ -13906,7 +13908,7 @@
       <c r="B39" t="s">
         <v>649</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H39" s="33"/>
@@ -13915,7 +13917,7 @@
       <c r="B40" t="s">
         <v>650</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H40" s="33"/>
@@ -13924,7 +13926,7 @@
       <c r="B41" t="s">
         <v>651</v>
       </c>
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H41" s="33"/>
@@ -13933,7 +13935,7 @@
       <c r="B42" t="s">
         <v>652</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H42" s="33"/>
@@ -13942,7 +13944,7 @@
       <c r="B43" t="s">
         <v>653</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H43" s="33"/>
@@ -13951,7 +13953,7 @@
       <c r="B44" t="s">
         <v>654</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H44" s="33"/>
@@ -13960,7 +13962,7 @@
       <c r="B45" t="s">
         <v>655</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H45" s="33"/>
@@ -13969,7 +13971,7 @@
       <c r="B46" t="s">
         <v>656</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H46" s="33"/>
@@ -13978,7 +13980,7 @@
       <c r="B47" t="s">
         <v>657</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H47" s="33"/>
@@ -13987,7 +13989,7 @@
       <c r="B48" t="s">
         <v>658</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="59" t="s">
         <v>412</v>
       </c>
       <c r="H48" s="33"/>
@@ -13996,7 +13998,7 @@
       <c r="B49" t="s">
         <v>659</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="59" t="s">
         <v>414</v>
       </c>
       <c r="H49" s="33"/>
@@ -14300,7 +14302,7 @@
       <c r="I65" t="s">
         <v>147</v>
       </c>
-      <c r="J65" s="68" t="s">
+      <c r="J65" s="69" t="s">
         <v>204</v>
       </c>
       <c r="K65" s="6" t="s">
@@ -14321,7 +14323,7 @@
         <v>84</v>
       </c>
       <c r="H66" s="33"/>
-      <c r="J66" s="68"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="6" t="s">
         <v>239</v>
       </c>
@@ -14452,16 +14454,16 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
@@ -14470,13 +14472,13 @@
       <c r="B79" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C79" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
       <c r="H79" s="45" t="s">
         <v>437</v>
       </c>
@@ -14488,85 +14490,90 @@
       <c r="B80" s="46">
         <v>43413</v>
       </c>
-      <c r="C80" s="64"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="68"/>
       <c r="H80" s="45"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="45"/>
       <c r="B81" s="46"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="45"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
       <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
       <c r="B83" s="46"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="45"/>
       <c r="B84" s="46"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="45"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
       <c r="H85" s="45"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="46"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="45"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="45"/>
       <c r="B87" s="46"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
       <c r="H87" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:G79"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C87:G87"/>
@@ -14575,11 +14582,6 @@
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C84:G84"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14594,8 +14596,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E44"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14610,20 +14612,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14770,7 +14772,7 @@
       <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="69" t="s">
         <v>204</v>
       </c>
       <c r="K9" t="s">
@@ -14790,7 +14792,7 @@
       <c r="I10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="69"/>
       <c r="K10" t="s">
         <v>241</v>
       </c>
@@ -14901,7 +14903,7 @@
       <c r="B17" t="s">
         <v>662</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14909,7 +14911,7 @@
       <c r="B18" t="s">
         <v>663</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14917,7 +14919,7 @@
       <c r="B19" t="s">
         <v>632</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14925,7 +14927,7 @@
       <c r="B20" t="s">
         <v>633</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14933,7 +14935,7 @@
       <c r="B21" t="s">
         <v>664</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14941,7 +14943,7 @@
       <c r="B22" t="s">
         <v>665</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14949,7 +14951,7 @@
       <c r="B23" t="s">
         <v>666</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14957,7 +14959,7 @@
       <c r="B24" t="s">
         <v>667</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14965,7 +14967,7 @@
       <c r="B25" t="s">
         <v>668</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14973,7 +14975,7 @@
       <c r="B26" t="s">
         <v>669</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14981,7 +14983,7 @@
       <c r="B27" t="s">
         <v>670</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14989,7 +14991,7 @@
       <c r="B28" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14997,7 +14999,7 @@
       <c r="B29" t="s">
         <v>672</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15005,7 +15007,7 @@
       <c r="B30" t="s">
         <v>673</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15013,7 +15015,7 @@
       <c r="B31" t="s">
         <v>674</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15021,7 +15023,7 @@
       <c r="B32" t="s">
         <v>675</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15029,7 +15031,7 @@
       <c r="B33" t="s">
         <v>676</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15037,7 +15039,7 @@
       <c r="B34" t="s">
         <v>677</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15045,7 +15047,7 @@
       <c r="B35" t="s">
         <v>678</v>
       </c>
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15053,7 +15055,7 @@
       <c r="B36" t="s">
         <v>679</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15061,7 +15063,7 @@
       <c r="B37" t="s">
         <v>680</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15069,7 +15071,7 @@
       <c r="B38" t="s">
         <v>681</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15077,7 +15079,7 @@
       <c r="B39" t="s">
         <v>682</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="59" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15085,7 +15087,7 @@
       <c r="B40" t="s">
         <v>683</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="59" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15155,16 +15157,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
@@ -15173,13 +15175,13 @@
       <c r="B52" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="45" t="s">
         <v>437</v>
       </c>
@@ -15191,13 +15193,13 @@
       <c r="B53" s="46">
         <v>43413</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="66" t="s">
         <v>611</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="45" t="s">
         <v>610</v>
       </c>
@@ -15209,11 +15211,11 @@
       <c r="B54" s="46">
         <v>43413</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
       <c r="H54" s="45" t="s">
         <v>610</v>
       </c>
@@ -15221,61 +15223,61 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="46"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="45"/>
     </row>
   </sheetData>
@@ -15322,20 +15324,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15580,16 +15582,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -15598,13 +15600,13 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="45" t="s">
         <v>437</v>
       </c>
@@ -15616,13 +15618,13 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="66" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="45" t="s">
         <v>610</v>
       </c>
@@ -15630,86 +15632,86 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15738,19 +15740,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15881,16 +15883,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -15899,13 +15901,13 @@
       <c r="B27" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="45" t="s">
         <v>437</v>
       </c>
@@ -15917,13 +15919,13 @@
       <c r="B28" s="46">
         <v>43413</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="72" t="s">
         <v>614</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
       <c r="H28" s="45" t="s">
         <v>610</v>
       </c>
@@ -15931,84 +15933,84 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
@@ -16017,13 +16019,13 @@
       <c r="B42" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="45" t="s">
         <v>437</v>
       </c>
@@ -16035,91 +16037,85 @@
       <c r="B43" s="46">
         <v>43413</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
       <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="C42:G42"/>
@@ -16135,6 +16131,12 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16161,18 +16163,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16259,16 +16261,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
@@ -16277,13 +16279,13 @@
       <c r="B26" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="45" t="s">
         <v>437</v>
       </c>
@@ -16295,71 +16297,71 @@
       <c r="B27" s="46">
         <v>43413</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
@@ -16381,6 +16383,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100119983B47978C24F92F824E7F8E3251D" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7ba5a235956e7fb7474612379ff3b739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="389ffc60-4789-4cbf-b926-44d574625ca7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9c5a6660c0d4ba68653274d105358c3" ns2:_="">
     <xsd:import namespace="389ffc60-4789-4cbf-b926-44d574625ca7"/>
@@ -16512,22 +16529,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="389ffc60-4789-4cbf-b926-44d574625ca7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92D4260-15CC-44EF-8FF4-B4AD2EC272CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16543,28 +16569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="389ffc60-4789-4cbf-b926-44d574625ca7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
+++ b/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarkoja\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6BB98-2ADE-4AB4-8346-158218B74823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A51F6-A671-4669-8812-DCCFAB9E0470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="910" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@@XLCUBEDDEFS@@" sheetId="10" state="veryHidden" r:id="rId1"/>
@@ -3165,7 +3165,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3223,12 +3223,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3424,7 +3418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3530,15 +3524,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3549,6 +3536,9 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3556,6 +3546,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3973,18 +3966,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4164,16 +4157,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -4182,13 +4175,13 @@
       <c r="B28" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="45" t="s">
         <v>437</v>
       </c>
@@ -4200,61 +4193,61 @@
       <c r="B29" s="46">
         <v>43413</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
   </sheetData>
@@ -4295,19 +4288,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4544,16 +4537,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
@@ -4562,13 +4555,13 @@
       <c r="B32" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45" t="s">
         <v>437</v>
       </c>
@@ -4580,71 +4573,71 @@
       <c r="B33" s="46">
         <v>43413</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="45"/>
     </row>
   </sheetData>
@@ -4689,19 +4682,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4796,16 +4789,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -4814,13 +4807,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -4832,11 +4825,11 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -4844,75 +4837,75 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4941,19 +4934,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5077,16 +5070,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -5095,13 +5088,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -5113,13 +5106,13 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -5127,51 +5120,51 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
   </sheetData>
@@ -5216,19 +5209,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5315,16 +5308,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -5333,13 +5326,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -5351,13 +5344,13 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45" t="s">
         <v>610</v>
       </c>
@@ -5365,86 +5358,86 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5476,19 +5469,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5707,16 +5700,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -5725,13 +5718,13 @@
       <c r="B29" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45" t="s">
         <v>437</v>
       </c>
@@ -5743,96 +5736,96 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5864,19 +5857,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6095,16 +6088,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -6113,13 +6106,13 @@
       <c r="B29" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45" t="s">
         <v>437</v>
       </c>
@@ -6131,96 +6124,96 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6248,19 +6241,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6446,16 +6439,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
@@ -6464,13 +6457,13 @@
       <c r="B25" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45" t="s">
         <v>437</v>
       </c>
@@ -6482,98 +6475,98 @@
       <c r="B26" s="46">
         <v>43413</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6600,19 +6593,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6777,16 +6770,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -6795,13 +6788,13 @@
       <c r="B20" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45" t="s">
         <v>437</v>
       </c>
@@ -6813,61 +6806,61 @@
       <c r="B21" s="46">
         <v>43413</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
@@ -6907,18 +6900,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7010,15 +7003,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
@@ -7027,12 +7020,12 @@
       <c r="B14" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="45" t="s">
         <v>437</v>
       </c>
@@ -7044,88 +7037,88 @@
       <c r="B15" s="46">
         <v>43413</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7152,13 +7145,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -7474,19 +7467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7573,16 +7566,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -7591,13 +7584,13 @@
       <c r="B13" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="45" t="s">
         <v>437</v>
       </c>
@@ -7609,73 +7602,73 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
@@ -7716,21 +7709,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7895,7 +7888,7 @@
       <c r="G10" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="77" t="s">
         <v>273</v>
       </c>
       <c r="K10" t="s">
@@ -7903,73 +7896,73 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J11" s="78"/>
+      <c r="J11" s="77"/>
       <c r="K11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J12" s="78"/>
+      <c r="J12" s="77"/>
       <c r="K12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J13" s="78"/>
+      <c r="J13" s="77"/>
       <c r="K13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="78"/>
+      <c r="J14" s="77"/>
       <c r="K14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J15" s="78"/>
+      <c r="J15" s="77"/>
       <c r="K15" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J16" s="78"/>
+      <c r="J16" s="77"/>
       <c r="K16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="78"/>
+      <c r="J17" s="77"/>
       <c r="K17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="78"/>
+      <c r="J18" s="77"/>
       <c r="K18" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="78"/>
+      <c r="J19" s="77"/>
       <c r="K19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="78"/>
+      <c r="J20" s="77"/>
       <c r="K20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="78"/>
+      <c r="J21" s="77"/>
       <c r="K21" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="78"/>
+      <c r="J22" s="77"/>
       <c r="K22" t="s">
         <v>271</v>
       </c>
@@ -7984,7 +7977,7 @@
       <c r="G23" t="s">
         <v>154</v>
       </c>
-      <c r="J23" s="78" t="s">
+      <c r="J23" s="77" t="s">
         <v>273</v>
       </c>
       <c r="K23" t="s">
@@ -7992,73 +7985,73 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="78"/>
+      <c r="J24" s="77"/>
       <c r="K24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="78"/>
+      <c r="J25" s="77"/>
       <c r="K25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="78"/>
+      <c r="J26" s="77"/>
       <c r="K26" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="78"/>
+      <c r="J27" s="77"/>
       <c r="K27" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="78"/>
+      <c r="J28" s="77"/>
       <c r="K28" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="78"/>
+      <c r="J29" s="77"/>
       <c r="K29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="78"/>
+      <c r="J30" s="77"/>
       <c r="K30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="78"/>
+      <c r="J31" s="77"/>
       <c r="K31" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="78"/>
+      <c r="J32" s="77"/>
       <c r="K32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="78"/>
+      <c r="J33" s="77"/>
       <c r="K33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="78"/>
+      <c r="J34" s="77"/>
       <c r="K34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="78"/>
+      <c r="J35" s="77"/>
       <c r="K35" t="s">
         <v>258</v>
       </c>
@@ -8073,7 +8066,7 @@
       <c r="G36" t="s">
         <v>155</v>
       </c>
-      <c r="J36" s="78" t="s">
+      <c r="J36" s="77" t="s">
         <v>273</v>
       </c>
       <c r="K36" t="s">
@@ -8081,73 +8074,73 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="78"/>
+      <c r="J37" s="77"/>
       <c r="K37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="78"/>
+      <c r="J38" s="77"/>
       <c r="K38" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="78"/>
+      <c r="J39" s="77"/>
       <c r="K39" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="78"/>
+      <c r="J40" s="77"/>
       <c r="K40" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="78"/>
+      <c r="J41" s="77"/>
       <c r="K41" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="78"/>
+      <c r="J42" s="77"/>
       <c r="K42" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="78"/>
+      <c r="J43" s="77"/>
       <c r="K43" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="78"/>
+      <c r="J44" s="77"/>
       <c r="K44" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="78"/>
+      <c r="J45" s="77"/>
       <c r="K45" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="78"/>
+      <c r="J46" s="77"/>
       <c r="K46" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J47" s="78"/>
+      <c r="J47" s="77"/>
       <c r="K47" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="78"/>
+      <c r="J48" s="77"/>
       <c r="K48" t="s">
         <v>258</v>
       </c>
@@ -8161,17 +8154,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -8180,13 +8173,13 @@
       <c r="B54" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="47"/>
       <c r="I54" s="45" t="s">
         <v>437</v>
@@ -8199,98 +8192,93 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="68"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
       <c r="H55" s="48"/>
       <c r="I55" s="45"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="49"/>
       <c r="I56" s="45"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="49"/>
       <c r="I57" s="45"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="47"/>
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="47"/>
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="47"/>
       <c r="I60" s="45"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="47"/>
       <c r="I61" s="45"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="47"/>
       <c r="I62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J10:J22"/>
-    <mergeCell ref="J23:J35"/>
-    <mergeCell ref="J36:J48"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A53:I53"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
@@ -8300,6 +8288,11 @@
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
+    <mergeCell ref="J10:J22"/>
+    <mergeCell ref="J23:J35"/>
+    <mergeCell ref="J36:J48"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A53:I53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8329,21 +8322,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8751,17 +8744,17 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -8770,13 +8763,13 @@
       <c r="B31" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="47"/>
       <c r="I31" s="45" t="s">
         <v>437</v>
@@ -8789,13 +8782,13 @@
       <c r="B32" s="46">
         <v>43413</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="48"/>
       <c r="I32" s="45" t="s">
         <v>610</v>
@@ -8808,13 +8801,13 @@
       <c r="B33" s="46">
         <v>43413</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="49"/>
       <c r="I33" s="45" t="s">
         <v>610</v>
@@ -8823,55 +8816,55 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="47"/>
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="47"/>
       <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="47"/>
       <c r="I36" s="45"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="50"/>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="50"/>
       <c r="I38" s="45"/>
     </row>
@@ -8916,21 +8909,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9103,17 +9096,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -9122,13 +9115,13 @@
       <c r="B21" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="47"/>
       <c r="I21" s="45" t="s">
         <v>437</v>
@@ -9141,104 +9134,104 @@
       <c r="B22" s="46">
         <v>43413</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="48"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="49"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="49"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="47"/>
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="47"/>
       <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="47"/>
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="47"/>
       <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="47"/>
       <c r="I29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9266,21 +9259,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9731,17 +9724,17 @@
       <c r="C34" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
@@ -9750,13 +9743,13 @@
       <c r="B40" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="47"/>
       <c r="I40" s="45" t="s">
         <v>437</v>
@@ -9769,13 +9762,13 @@
       <c r="B41" s="46">
         <v>43413</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
       <c r="H41" s="48"/>
       <c r="I41" s="45"/>
     </row>
@@ -9786,79 +9779,79 @@
       <c r="B42" s="46">
         <v>43413</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="49"/>
       <c r="I42" s="45"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="49"/>
       <c r="I43" s="45"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
       <c r="H44" s="47"/>
       <c r="I44" s="45"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="47"/>
       <c r="I45" s="45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="47"/>
       <c r="I46" s="45"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="47"/>
       <c r="I47" s="45"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="47"/>
       <c r="I48" s="45"/>
     </row>
@@ -9867,17 +9860,17 @@
     <sortCondition ref="B5:B23"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9907,20 +9900,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10068,17 +10061,17 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
@@ -10087,13 +10080,13 @@
       <c r="B17" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="45" t="s">
         <v>437</v>
       </c>
@@ -10105,71 +10098,71 @@
       <c r="B18" s="46">
         <v>43413</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
   </sheetData>
@@ -10209,18 +10202,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10461,15 +10454,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -10478,12 +10471,12 @@
       <c r="B27" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="45" t="s">
         <v>437</v>
       </c>
@@ -10495,55 +10488,55 @@
       <c r="B28" s="46">
         <v>43413</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10591,19 +10584,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10707,16 +10700,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
@@ -10725,13 +10718,13 @@
       <c r="B15" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="45" t="s">
         <v>437</v>
       </c>
@@ -10743,13 +10736,13 @@
       <c r="B16" s="46">
         <v>43413</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="45" t="s">
         <v>610</v>
       </c>
@@ -10757,86 +10750,86 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10865,19 +10858,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11384,16 +11377,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -11402,13 +11395,13 @@
       <c r="B54" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="45" t="s">
         <v>437</v>
       </c>
@@ -11420,13 +11413,13 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="68"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
       <c r="H55" s="45" t="s">
         <v>610</v>
       </c>
@@ -11434,86 +11427,86 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11541,18 +11534,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11673,15 +11666,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -11690,12 +11683,12 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="45" t="s">
         <v>437</v>
       </c>
@@ -11707,12 +11700,12 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="45" t="s">
         <v>610</v>
       </c>
@@ -11724,12 +11717,12 @@
       <c r="B20" s="46">
         <v>43419</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>624</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="45" t="s">
         <v>610</v>
       </c>
@@ -11737,70 +11730,70 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11810,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ADBFB-9A46-478C-BEB8-D55B94070F9B}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12291,19 +12284,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12443,16 +12436,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -12461,13 +12454,13 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45" t="s">
         <v>437</v>
       </c>
@@ -12479,96 +12472,96 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12594,7 +12587,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12611,20 +12604,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12871,7 +12864,7 @@
       <c r="J13" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="60" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -12896,7 +12889,7 @@
       <c r="J14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="63"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="4" t="s">
         <v>276</v>
       </c>
@@ -12919,7 +12912,7 @@
       <c r="J15" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="63"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="4" t="s">
         <v>276</v>
       </c>
@@ -13125,16 +13118,16 @@
       <c r="F27" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
@@ -13143,13 +13136,13 @@
       <c r="B33" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45" t="s">
         <v>437</v>
       </c>
@@ -13161,92 +13154,87 @@
       <c r="B34" s="46">
         <v>43413</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="64" t="s">
         <v>625</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C35:G35"/>
@@ -13254,6 +13242,11 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -13271,8 +13264,8 @@
   </sheetPr>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13288,20 +13281,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13428,7 +13421,7 @@
       <c r="I8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="69" t="s">
         <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -13449,7 +13442,7 @@
       <c r="I9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="7" t="s">
         <v>220</v>
       </c>
@@ -13809,7 +13802,7 @@
       <c r="B28" t="s">
         <v>638</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H28" s="33"/>
@@ -13818,7 +13811,7 @@
       <c r="B29" t="s">
         <v>639</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H29" s="33"/>
@@ -13827,7 +13820,7 @@
       <c r="B30" t="s">
         <v>640</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H30" s="33"/>
@@ -13836,7 +13829,7 @@
       <c r="B31" t="s">
         <v>641</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H31" s="33"/>
@@ -13845,7 +13838,7 @@
       <c r="B32" t="s">
         <v>642</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H32" s="33"/>
@@ -13854,7 +13847,7 @@
       <c r="B33" t="s">
         <v>643</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H33" s="33"/>
@@ -13863,7 +13856,7 @@
       <c r="B34" t="s">
         <v>644</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H34" s="33"/>
@@ -13872,7 +13865,7 @@
       <c r="B35" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H35" s="33"/>
@@ -13881,7 +13874,7 @@
       <c r="B36" t="s">
         <v>646</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H36" s="33"/>
@@ -13890,7 +13883,7 @@
       <c r="B37" t="s">
         <v>647</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H37" s="33"/>
@@ -13899,7 +13892,7 @@
       <c r="B38" t="s">
         <v>648</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H38" s="33"/>
@@ -13908,7 +13901,7 @@
       <c r="B39" t="s">
         <v>649</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H39" s="33"/>
@@ -13917,7 +13910,7 @@
       <c r="B40" t="s">
         <v>650</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H40" s="33"/>
@@ -13926,7 +13919,7 @@
       <c r="B41" t="s">
         <v>651</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H41" s="33"/>
@@ -13935,7 +13928,7 @@
       <c r="B42" t="s">
         <v>652</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H42" s="33"/>
@@ -13944,7 +13937,7 @@
       <c r="B43" t="s">
         <v>653</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H43" s="33"/>
@@ -13953,7 +13946,7 @@
       <c r="B44" t="s">
         <v>654</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H44" s="33"/>
@@ -13962,7 +13955,7 @@
       <c r="B45" t="s">
         <v>655</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H45" s="33"/>
@@ -13971,7 +13964,7 @@
       <c r="B46" t="s">
         <v>656</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H46" s="33"/>
@@ -13980,7 +13973,7 @@
       <c r="B47" t="s">
         <v>657</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H47" s="33"/>
@@ -13989,7 +13982,7 @@
       <c r="B48" t="s">
         <v>658</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H48" s="33"/>
@@ -13998,7 +13991,7 @@
       <c r="B49" t="s">
         <v>659</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H49" s="33"/>
@@ -14302,7 +14295,7 @@
       <c r="I65" t="s">
         <v>147</v>
       </c>
-      <c r="J65" s="69" t="s">
+      <c r="J65" s="68" t="s">
         <v>204</v>
       </c>
       <c r="K65" s="6" t="s">
@@ -14323,7 +14316,7 @@
         <v>84</v>
       </c>
       <c r="H66" s="33"/>
-      <c r="J66" s="69"/>
+      <c r="J66" s="68"/>
       <c r="K66" s="6" t="s">
         <v>239</v>
       </c>
@@ -14454,16 +14447,16 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
@@ -14472,13 +14465,13 @@
       <c r="B79" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="45" t="s">
         <v>437</v>
       </c>
@@ -14490,90 +14483,85 @@
       <c r="B80" s="46">
         <v>43413</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="68"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="66"/>
       <c r="H80" s="45"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="45"/>
       <c r="B81" s="46"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="45"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
       <c r="B83" s="46"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="45"/>
       <c r="B84" s="46"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="45"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="45"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="46"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="45"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="45"/>
       <c r="B87" s="46"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:G79"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C87:G87"/>
@@ -14582,6 +14570,11 @@
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C84:G84"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14596,8 +14589,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E40"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14612,20 +14605,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14772,7 +14765,7 @@
       <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="68" t="s">
         <v>204</v>
       </c>
       <c r="K9" t="s">
@@ -14792,7 +14785,7 @@
       <c r="I10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="68"/>
       <c r="K10" t="s">
         <v>241</v>
       </c>
@@ -14903,7 +14896,7 @@
       <c r="B17" t="s">
         <v>662</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14911,7 +14904,7 @@
       <c r="B18" t="s">
         <v>663</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14919,7 +14912,7 @@
       <c r="B19" t="s">
         <v>632</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14927,7 +14920,7 @@
       <c r="B20" t="s">
         <v>633</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14935,7 +14928,7 @@
       <c r="B21" t="s">
         <v>664</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14943,7 +14936,7 @@
       <c r="B22" t="s">
         <v>665</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14951,7 +14944,7 @@
       <c r="B23" t="s">
         <v>666</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14959,7 +14952,7 @@
       <c r="B24" t="s">
         <v>667</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14967,7 +14960,7 @@
       <c r="B25" t="s">
         <v>668</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14975,7 +14968,7 @@
       <c r="B26" t="s">
         <v>669</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14983,7 +14976,7 @@
       <c r="B27" t="s">
         <v>670</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -14991,7 +14984,7 @@
       <c r="B28" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14999,7 +14992,7 @@
       <c r="B29" t="s">
         <v>672</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15007,7 +15000,7 @@
       <c r="B30" t="s">
         <v>673</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15015,7 +15008,7 @@
       <c r="B31" t="s">
         <v>674</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15023,7 +15016,7 @@
       <c r="B32" t="s">
         <v>675</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15031,7 +15024,7 @@
       <c r="B33" t="s">
         <v>676</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15039,7 +15032,7 @@
       <c r="B34" t="s">
         <v>677</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15047,7 +15040,7 @@
       <c r="B35" t="s">
         <v>678</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15055,7 +15048,7 @@
       <c r="B36" t="s">
         <v>679</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15063,7 +15056,7 @@
       <c r="B37" t="s">
         <v>680</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15071,7 +15064,7 @@
       <c r="B38" t="s">
         <v>681</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15079,7 +15072,7 @@
       <c r="B39" t="s">
         <v>682</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="7" t="s">
         <v>412</v>
       </c>
     </row>
@@ -15087,7 +15080,7 @@
       <c r="B40" t="s">
         <v>683</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="7" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15095,7 +15088,7 @@
       <c r="B41" t="s">
         <v>500</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="7" t="s">
         <v>499</v>
       </c>
       <c r="G41" t="s">
@@ -15157,16 +15150,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
@@ -15175,13 +15168,13 @@
       <c r="B52" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="45" t="s">
         <v>437</v>
       </c>
@@ -15193,13 +15186,13 @@
       <c r="B53" s="46">
         <v>43413</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
       <c r="H53" s="45" t="s">
         <v>610</v>
       </c>
@@ -15211,11 +15204,11 @@
       <c r="B54" s="46">
         <v>43413</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
       <c r="H54" s="45" t="s">
         <v>610</v>
       </c>
@@ -15223,61 +15216,61 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="46"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="45"/>
     </row>
   </sheetData>
@@ -15308,8 +15301,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15324,20 +15317,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15582,16 +15575,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -15600,13 +15593,13 @@
       <c r="B18" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="45" t="s">
         <v>437</v>
       </c>
@@ -15618,13 +15611,13 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="45" t="s">
         <v>610</v>
       </c>
@@ -15632,86 +15625,86 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15740,19 +15733,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15883,16 +15876,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -15901,13 +15894,13 @@
       <c r="B27" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="45" t="s">
         <v>437</v>
       </c>
@@ -15919,13 +15912,13 @@
       <c r="B28" s="46">
         <v>43413</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="71" t="s">
         <v>614</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="45" t="s">
         <v>610</v>
       </c>
@@ -15933,84 +15926,84 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
@@ -16019,13 +16012,13 @@
       <c r="B42" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="45" t="s">
         <v>437</v>
       </c>
@@ -16037,85 +16030,91 @@
       <c r="B43" s="46">
         <v>43413</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="C42:G42"/>
@@ -16131,12 +16130,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16163,18 +16156,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16261,16 +16254,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
@@ -16279,13 +16272,13 @@
       <c r="B26" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="45" t="s">
         <v>437</v>
       </c>
@@ -16297,71 +16290,71 @@
       <c r="B27" s="46">
         <v>43413</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
@@ -16383,21 +16376,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100119983B47978C24F92F824E7F8E3251D" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7ba5a235956e7fb7474612379ff3b739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="389ffc60-4789-4cbf-b926-44d574625ca7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9c5a6660c0d4ba68653274d105358c3" ns2:_="">
     <xsd:import namespace="389ffc60-4789-4cbf-b926-44d574625ca7"/>
@@ -16529,31 +16507,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="389ffc60-4789-4cbf-b926-44d574625ca7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92D4260-15CC-44EF-8FF4-B4AD2EC272CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16569,4 +16538,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="389ffc60-4789-4cbf-b926-44d574625ca7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
+++ b/Schnittstellen Beschreibung/OREC-SBB_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarkoja\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459BB2B-8CEA-4CD7-9141-BFE92473AC0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760E35C-7DFD-4E2A-AFA5-A567F7B46D8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7170" tabRatio="910" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,9 @@
     <sheet name="FaktBuchungsPerioden" sheetId="24" r:id="rId27"/>
     <sheet name="FaktHauptBuch" sheetId="25" r:id="rId28"/>
     <sheet name="FaktKostensatz" sheetId="26" state="hidden" r:id="rId29"/>
+    <sheet name="DimSubFibuKonto" sheetId="34" r:id="rId30"/>
+    <sheet name="DimKunde" sheetId="35" r:id="rId31"/>
+    <sheet name="DimLieferant" sheetId="36" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabellenübersicht!$A$1:$F$1</definedName>
@@ -754,7 +757,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="924">
   <si>
     <t>Ressource_Email (nvarchar(255), null)</t>
   </si>
@@ -2830,12 +2833,6 @@
     <t>AbteilungName</t>
   </si>
   <si>
-    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;book createdby="9.1.60.0" savedby="9.1.60.0" publishedby="6.0" designmode="0" publishedpath="" commentswebserver="" dimensionslicersoutputtyped="1"&gt;&lt;permissions&gt;&lt;permission name="ConvertShapesToImagesOnPublish" value="1" /&gt;&lt;permission name="UseRefreshOnDrivingCellChangeOnWeb" value="1" /&gt;&lt;permission name="SaveToPowerPoint" value="0" /&gt;&lt;permission name="DundasChartRendering" value="0" /&gt;&lt;permission name="DrillMemberFormulae" value="1" /&gt;&lt;permission name="EditMemberFormulae" value="1" /&gt;&lt;/permissions&gt;&lt;connections /&gt;&lt;sqlconnections /&gt;&lt;cubealiases /&gt;&lt;parameters /&gt;&lt;sheets&gt;&lt;sheet name="@@XLCUBEDDEFS@@"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;46.5&lt;/widthforscale&gt;&lt;heightforscale&gt;15&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="REST_API"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;151.5&lt;/widthforscale&gt;&lt;heightforscale&gt;29.25&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="Tabellenübersicht"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;149.25&lt;/widthforscale&gt;&lt;heightforscale&gt;21.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimRessource"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimHauptprojekt"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;85.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimUnterprojekt"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimArbeitsauftrag"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimSubFibuKonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimWährung"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimFirma"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;122.25&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;126.75&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKonzernKonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="BridgeKontoKonzernkonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKostenstelle"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKunde"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimLieferant"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimProjektErgebnisSchema"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimBenutzer"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimAktivität"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimAbteilung"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktSecurity_Projektbeteiligte"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;95.25&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktZeittransaktionen"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktProjektUrwerte"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktPlanner"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;wi</t>
-  </si>
-  <si>
-    <t>dthforscale&gt;69.75&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktWährungskurse"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;103.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktProjektergenbisWerte"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktBuchungsPerioden"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktHauptBuch"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;82.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktKostensatz"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;111&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktSecurity_Funktionen"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKundeLieferant"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;15&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;/sheets&gt;&lt;workbookcalculationdefinitions /&gt;&lt;formulaoptions replacenulls="1" replacenullswith="" hidenullondrill="1" hidezeroondrill="0" autofitondrill="0" enablewriteback="0" indentondrill="1" lightenbackgroundondrill="0" validatemembers="1" trimgridprefix="1" /&gt;&lt;publicationoptions autorefreshfrequency="0" multisheetenableprint="0" multisheetenablesavetoexcel="0" multisheetnameoverride="" usepowerpointtemplate="0" powerpointdownloadtemplate="" preferaliasedimages="0" /&gt;&lt;publishdetails /&gt;&lt;dependencies ismanual="0" hasAncestors="0" hasDescendants="0" maxarrowspercell="50" maxarrowsdepth="10" /&gt;&lt;customproperties /&gt;&lt;ignoremutlimembersactions&gt;0&lt;/ignoremutlimembersactions&gt;&lt;gridovertypingcreatesalias&gt;0&lt;/gridovertypingcreatesalias&gt;&lt;rangeselcheckformula&gt;0&lt;/rangeselcheckformula&gt;&lt;commentskey /&gt;&lt;usecommentskey&gt;0&lt;/usecommentskey&gt;&lt;fastpdf&gt;0&lt;/fastpdf&gt;&lt;queryengine&gt;&lt;asqueryopt&gt;&lt;queryoptimiser /&gt;&lt;/asqueryopt&gt;&lt;ptqueryopt&gt;&lt;queryoptimiser /&gt;&lt;/ptqueryopt&gt;&lt;/queryengine&gt;&lt;formulabreakoutdefinitions /&gt;&lt;writeback allowWriteback="0" entryMode="Online" atLevel="LowestOnly" highlightMembers="0" highlightData="0" highlightColour="0" changedColour="0" spreadMethod="" weightExpression="" writetodatamember="0" /&gt;&lt;maxgridrefreshdepth&gt;5&lt;/maxgridrefreshdepth&gt;&lt;/book&gt;</t>
-  </si>
-  <si>
     <t>Belegdatum</t>
   </si>
   <si>
@@ -3456,9 +3453,6 @@
     <t>die Schnittstelle Kostenstelle wird angewendet</t>
   </si>
   <si>
-    <t>DimDerivedAktivität</t>
-  </si>
-  <si>
     <t>Aktivität + Firma (wird auf Fibu Konto gematched)</t>
   </si>
   <si>
@@ -3571,6 +3565,12 @@
   </si>
   <si>
     <t>Klärungsbedarf</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;book createdby="9.1.60.0" savedby="9.1.60.0" publishedby="6.0" designmode="0" publishedpath="" commentswebserver="" dimensionslicersoutputtyped="1"&gt;&lt;permissions&gt;&lt;permission name="ConvertShapesToImagesOnPublish" value="1" /&gt;&lt;permission name="UseRefreshOnDrivingCellChangeOnWeb" value="1" /&gt;&lt;permission name="SaveToPowerPoint" value="0" /&gt;&lt;permission name="DundasChartRendering" value="0" /&gt;&lt;permission name="DrillMemberFormulae" value="1" /&gt;&lt;permission name="EditMemberFormulae" value="1" /&gt;&lt;/permissions&gt;&lt;connections /&gt;&lt;sqlconnections /&gt;&lt;cubealiases /&gt;&lt;parameters /&gt;&lt;sheets&gt;&lt;sheet name="@@XLCUBEDDEFS@@"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;46.5&lt;/widthforscale&gt;&lt;heightforscale&gt;15&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="REST_API"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;151.5&lt;/widthforscale&gt;&lt;heightforscale&gt;29.25&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="Tabellenübersicht"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;149.25&lt;/widthforscale&gt;&lt;heightforscale&gt;21.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimRessource"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimHauptprojekt"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;85.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimUnterprojekt"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimArbeitsauftrag"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimDerivedAktivität"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimWährung"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimFirma"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;122.25&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKostenstelle"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;126.75&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKonzernKonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="BridgeKontoKonzernkonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimAbteilung"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKundeLieferant"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimProjektErgebnisSchema"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimBenutzer"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimAktivität"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktSecurity_Projektbeteiligte"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;95.25&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktSecurity_Funktionen"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktZeittransaktionen"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktProjektUrwerte"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;106.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktPlanner"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquer</t>
+  </si>
+  <si>
+    <t>ygenerators="0" /&gt;&lt;widthforscale&gt;69.75&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktWährungskurse"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;103.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktProjektergenbisWerte"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktBuchungsPerioden"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktHauptBuch"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;82.5&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="FaktKostensatz"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;111&lt;/widthforscale&gt;&lt;heightforscale&gt;18.75&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimSubFibuKonto"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;15&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimKunde"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;15&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;sheet name="DimLieferant"&gt;&lt;requires ismanual="0" allgrids="0" alltables="0" allquerygenerators="0" /&gt;&lt;widthforscale&gt;60&lt;/widthforscale&gt;&lt;heightforscale&gt;15&lt;/heightforscale&gt;&lt;/sheet&gt;&lt;/sheets&gt;&lt;workbookcalculationdefinitions /&gt;&lt;formulaoptions replacenulls="1" replacenullswith="" hidenullondrill="1" hidezeroondrill="0" autofitondrill="0" enablewriteback="0" indentondrill="1" lightenbackgroundondrill="0" validatemembers="1" trimgridprefix="1" /&gt;&lt;publicationoptions autorefreshfrequency="0" multisheetenableprint="0" multisheetenablesavetoexcel="0" multisheetnameoverride="" usepowerpointtemplate="0" powerpointdownloadtemplate="" preferaliasedimages="0" /&gt;&lt;publishdetails /&gt;&lt;dependencies ismanual="0" hasAncestors="0" hasDescendants="0" maxarrowspercell="50" maxarrowsdepth="10" /&gt;&lt;customproperties /&gt;&lt;ignoremutlimembersactions&gt;0&lt;/ignoremutlimembersactions&gt;&lt;gridovertypingcreatesalias&gt;0&lt;/gridovertypingcreatesalias&gt;&lt;rangeselcheckformula&gt;0&lt;/rangeselcheckformula&gt;&lt;commentskey /&gt;&lt;usecommentskey&gt;0&lt;/usecommentskey&gt;&lt;fastpdf&gt;0&lt;/fastpdf&gt;&lt;queryengine&gt;&lt;asqueryopt&gt;&lt;queryoptimiser /&gt;&lt;/asqueryopt&gt;&lt;ptqueryopt&gt;&lt;queryoptimiser /&gt;&lt;/ptqueryopt&gt;&lt;/queryengine&gt;&lt;formulabreakoutdefinitions /&gt;&lt;writeback allowWriteback="0" entryMode="Online" atLevel="LowestOnly" highlightMembers="0" highlightData="0" highlightColour="0" changedColour="0" spreadMethod="" weightExpression="" writetodatamember="0" /&gt;&lt;maxgridrefreshdepth&gt;5&lt;/maxgridrefreshdepth&gt;&lt;/book&gt;</t>
   </si>
 </sst>
 </file>
@@ -4090,12 +4090,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4105,6 +4099,9 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4112,6 +4109,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4921,12 +4921,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>681</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>682</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -4957,18 +4957,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5035,29 +5035,29 @@
         <v>390</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E7" t="s">
         <v>391</v>
       </c>
       <c r="H7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E8" t="s">
         <v>390</v>
@@ -5066,118 +5066,118 @@
         <v>181</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E9" t="s">
         <v>392</v>
       </c>
       <c r="H9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E10" t="s">
         <v>393</v>
       </c>
       <c r="H10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E11" t="s">
         <v>393</v>
       </c>
       <c r="I11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E12" t="s">
         <v>393</v>
       </c>
       <c r="I12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E13" t="s">
         <v>391</v>
       </c>
       <c r="H13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E14" t="s">
         <v>394</v>
       </c>
       <c r="H14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E15" t="s">
         <v>395</v>
       </c>
       <c r="H15" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E16" t="s">
         <v>396</v>
       </c>
       <c r="H16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -5188,7 +5188,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5200,16 +5200,16 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
@@ -5218,13 +5218,13 @@
       <c r="B26" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="45" t="s">
         <v>410</v>
       </c>
@@ -5236,61 +5236,61 @@
       <c r="B27" s="46">
         <v>43413</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="45"/>
     </row>
   </sheetData>
@@ -5336,19 +5336,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>874</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="A1" s="66" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5409,7 +5409,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="12" t="s">
@@ -5419,11 +5419,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="12" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="61" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5437,24 +5437,24 @@
         <v>390</v>
       </c>
       <c r="H7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E8" t="s">
         <v>391</v>
       </c>
       <c r="H8" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5466,16 +5466,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
@@ -5484,13 +5484,13 @@
       <c r="B39" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="45" t="s">
         <v>410</v>
       </c>
@@ -5502,13 +5502,13 @@
       <c r="B40" s="46">
         <v>43451</v>
       </c>
-      <c r="C40" s="70" t="s">
-        <v>876</v>
-      </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="72"/>
+      <c r="C40" s="69" t="s">
+        <v>874</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="45" t="s">
         <v>576</v>
       </c>
@@ -5516,86 +5516,86 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5624,19 +5624,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5697,7 +5697,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>345</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>345</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E8" t="s">
         <v>392</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E9" t="s">
         <v>392</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E10" t="s">
         <v>392</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E11" t="s">
         <v>392</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E12" t="s">
         <v>392</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E13" t="s">
         <v>392</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E14" t="s">
         <v>392</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E15" t="s">
         <v>392</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E16" t="s">
         <v>392</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E17" t="s">
         <v>391</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E18" t="s">
         <v>391</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E19" t="s">
         <v>483</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E20" t="s">
         <v>483</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E21" t="s">
         <v>484</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E22" t="s">
         <v>485</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E23" t="s">
         <v>484</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E24" t="s">
         <v>422</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E25" t="s">
         <v>392</v>
@@ -5873,16 +5873,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
@@ -5891,13 +5891,13 @@
       <c r="B32" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="45" t="s">
         <v>410</v>
       </c>
@@ -5909,73 +5909,73 @@
       <c r="B33" s="46">
         <v>43451</v>
       </c>
-      <c r="C33" s="70" t="s">
-        <v>877</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="72"/>
+      <c r="C33" s="69" t="s">
+        <v>875</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="45"/>
     </row>
   </sheetData>
@@ -6021,19 +6021,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6094,7 +6094,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>345</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E7" t="s">
         <v>391</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E8" t="s">
         <v>391</v>
@@ -6128,16 +6128,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -6146,13 +6146,13 @@
       <c r="B13" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="45" t="s">
         <v>410</v>
       </c>
@@ -6164,13 +6164,13 @@
       <c r="B14" s="46">
         <v>43451</v>
       </c>
-      <c r="C14" s="70" t="s">
-        <v>877</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="69" t="s">
+        <v>875</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45" t="s">
         <v>576</v>
       </c>
@@ -6178,75 +6178,75 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6275,19 +6275,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6348,7 +6348,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
         <v>345</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C7" t="s">
         <v>345</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E8" t="s">
         <v>392</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E9" t="s">
         <v>392</v>
@@ -6411,16 +6411,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -6429,13 +6429,13 @@
       <c r="B13" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="45" t="s">
         <v>410</v>
       </c>
@@ -6447,13 +6447,13 @@
       <c r="B14" s="46">
         <v>43451</v>
       </c>
-      <c r="C14" s="70" t="s">
-        <v>877</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="69" t="s">
+        <v>875</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45" t="s">
         <v>576</v>
       </c>
@@ -6461,51 +6461,51 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="45"/>
     </row>
   </sheetData>
@@ -6544,19 +6544,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6643,16 +6643,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -6661,13 +6661,13 @@
       <c r="B13" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="45" t="s">
         <v>410</v>
       </c>
@@ -6679,73 +6679,73 @@
       <c r="B14" s="46">
         <v>43413</v>
       </c>
-      <c r="C14" s="70" t="s">
-        <v>885</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="69" t="s">
+        <v>883</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="45"/>
     </row>
   </sheetData>
@@ -6791,19 +6791,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6864,7 +6864,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" t="s">
@@ -6876,7 +6876,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>345</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C8" s="12"/>
       <c r="E8" t="s">
@@ -6896,7 +6896,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D9" t="s">
         <v>345</v>
@@ -6905,12 +6905,12 @@
         <v>390</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E10" t="s">
         <v>391</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D11" t="s">
         <v>345</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D12" t="s">
         <v>345</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E13" t="s">
         <v>484</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E14" t="s">
         <v>390</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E15" t="s">
         <v>394</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E16" t="s">
         <v>395</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E17" t="s">
         <v>396</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E18" t="s">
         <v>390</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E19" t="s">
         <v>391</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E20" t="s">
         <v>489</v>
@@ -7004,18 +7004,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E21" t="s">
         <v>391</v>
       </c>
       <c r="L21" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E22" t="s">
         <v>484</v>
@@ -7030,16 +7030,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -7048,13 +7048,13 @@
       <c r="B29" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="45" t="s">
         <v>410</v>
       </c>
@@ -7066,11 +7066,11 @@
       <c r="B30" s="46">
         <v>43413</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7086,76 +7086,76 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7170,7 +7170,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E20"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,19 +7183,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7381,16 +7381,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
@@ -7399,13 +7399,13 @@
       <c r="B25" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="45" t="s">
         <v>410</v>
       </c>
@@ -7417,98 +7417,98 @@
       <c r="B26" s="46">
         <v>43413</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7522,7 +7522,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7535,19 +7535,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7712,16 +7712,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -7730,13 +7730,13 @@
       <c r="B20" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="45" t="s">
         <v>410</v>
       </c>
@@ -7748,61 +7748,61 @@
       <c r="B21" s="46">
         <v>43413</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
@@ -7842,18 +7842,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7945,15 +7945,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
@@ -7962,12 +7962,12 @@
       <c r="B14" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="45" t="s">
         <v>410</v>
       </c>
@@ -7979,88 +7979,88 @@
       <c r="B15" s="46">
         <v>43413</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8397,8 +8397,8 @@
   </sheetPr>
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,17 +8856,17 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="69"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
@@ -8875,13 +8875,13 @@
       <c r="B80" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C80" s="65" t="s">
+      <c r="C80" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
       <c r="H80" s="47"/>
       <c r="I80" s="45" t="s">
         <v>410</v>
@@ -8894,98 +8894,93 @@
       <c r="B81" s="46">
         <v>43413</v>
       </c>
-      <c r="C81" s="70"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="72"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="71"/>
       <c r="H81" s="48"/>
       <c r="I81" s="45"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
       <c r="H82" s="49"/>
       <c r="I82" s="45"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
       <c r="B83" s="46"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
       <c r="H83" s="49"/>
       <c r="I83" s="45"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="45"/>
       <c r="B84" s="46"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
       <c r="H84" s="47"/>
       <c r="I84" s="45"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="47"/>
       <c r="I85" s="45"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="46"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
       <c r="H86" s="47"/>
       <c r="I86" s="45"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="45"/>
       <c r="B87" s="46"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
       <c r="H87" s="47"/>
       <c r="I87" s="45"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="45"/>
       <c r="B88" s="46"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
       <c r="H88" s="47"/>
       <c r="I88" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J10:J22"/>
-    <mergeCell ref="J23:J35"/>
-    <mergeCell ref="J36:J48"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A79:I79"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C87:G87"/>
@@ -8995,6 +8990,11 @@
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C84:G84"/>
+    <mergeCell ref="J10:J22"/>
+    <mergeCell ref="J23:J35"/>
+    <mergeCell ref="J36:J48"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A79:I79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9010,8 +9010,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E8" t="s">
         <v>392</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E9" t="s">
         <v>392</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E10" t="s">
         <v>392</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E11" t="s">
         <v>392</v>
@@ -9162,7 +9162,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C12" t="s">
         <v>345</v>
@@ -9175,16 +9175,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -9193,13 +9193,13 @@
       <c r="B18" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="45" t="s">
         <v>410</v>
       </c>
@@ -9211,96 +9211,96 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9315,7 +9315,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C20" t="s">
         <v>345</v>
@@ -9751,17 +9751,17 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -9770,13 +9770,13 @@
       <c r="B31" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="47"/>
       <c r="I31" s="45" t="s">
         <v>410</v>
@@ -9789,13 +9789,13 @@
       <c r="B32" s="46">
         <v>43413</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="69" t="s">
         <v>579</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="48"/>
       <c r="I32" s="45" t="s">
         <v>576</v>
@@ -9823,55 +9823,55 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="47"/>
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="47"/>
       <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="47"/>
       <c r="I36" s="45"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="50"/>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="50"/>
       <c r="I38" s="45"/>
     </row>
@@ -9902,7 +9902,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10103,17 +10103,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -10122,13 +10122,13 @@
       <c r="B21" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="47"/>
       <c r="I21" s="45" t="s">
         <v>410</v>
@@ -10141,104 +10141,104 @@
       <c r="B22" s="46">
         <v>43413</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="48"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="49"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="49"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="47"/>
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="47"/>
       <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="47"/>
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="47"/>
       <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="47"/>
       <c r="I29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10254,7 +10254,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10731,17 +10731,17 @@
       <c r="C34" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
@@ -10750,13 +10750,13 @@
       <c r="B40" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="47"/>
       <c r="I40" s="45" t="s">
         <v>410</v>
@@ -10769,13 +10769,13 @@
       <c r="B41" s="46">
         <v>43413</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="72"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="48"/>
       <c r="I41" s="45"/>
     </row>
@@ -10799,66 +10799,66 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
       <c r="H43" s="49"/>
       <c r="I43" s="45"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="47"/>
       <c r="I44" s="45"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="47"/>
       <c r="I45" s="45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="47"/>
       <c r="I46" s="45"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="47"/>
       <c r="I47" s="45"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="47"/>
       <c r="I48" s="45"/>
     </row>
@@ -10867,17 +10867,17 @@
     <sortCondition ref="B5:B23"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10893,7 +10893,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11035,6 +11035,9 @@
       <c r="B11" t="s">
         <v>416</v>
       </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
       <c r="D11" t="s">
         <v>345</v>
       </c>
@@ -11046,6 +11049,9 @@
       <c r="B12" t="s">
         <v>417</v>
       </c>
+      <c r="C12" t="s">
+        <v>345</v>
+      </c>
       <c r="D12" t="s">
         <v>345</v>
       </c>
@@ -11068,17 +11074,17 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
@@ -11087,13 +11093,13 @@
       <c r="B17" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="45" t="s">
         <v>410</v>
       </c>
@@ -11105,71 +11111,71 @@
       <c r="B18" s="46">
         <v>43413</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="45"/>
     </row>
   </sheetData>
@@ -11461,15 +11467,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -11478,12 +11484,12 @@
       <c r="B27" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="45" t="s">
         <v>410</v>
       </c>
@@ -11495,55 +11501,55 @@
       <c r="B28" s="46">
         <v>43413</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -11580,7 +11586,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11707,16 +11713,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
@@ -11725,13 +11731,13 @@
       <c r="B15" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="45" t="s">
         <v>410</v>
       </c>
@@ -11743,13 +11749,13 @@
       <c r="B16" s="46">
         <v>43413</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>588</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45" t="s">
         <v>576</v>
       </c>
@@ -11757,86 +11763,86 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11850,7 +11856,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11927,7 +11933,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C5" t="s">
         <v>345</v>
@@ -11955,7 +11961,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C7" t="s">
         <v>345</v>
@@ -11983,7 +11989,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E9" t="s">
         <v>390</v>
@@ -11991,7 +11997,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C10" t="s">
         <v>345</v>
@@ -12019,7 +12025,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C12" t="s">
         <v>345</v>
@@ -12061,7 +12067,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C15" t="s">
         <v>345</v>
@@ -12111,7 +12117,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E19" t="s">
         <v>419</v>
@@ -12119,7 +12125,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" t="s">
         <v>502</v>
@@ -12127,7 +12133,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E21" t="s">
         <v>502</v>
@@ -12135,7 +12141,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E22" t="s">
         <v>502</v>
@@ -12143,7 +12149,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E23" t="s">
         <v>502</v>
@@ -12151,7 +12157,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E24" t="s">
         <v>486</v>
@@ -12159,7 +12165,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E25" t="s">
         <v>502</v>
@@ -12167,7 +12173,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E26" t="s">
         <v>502</v>
@@ -12175,7 +12181,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E27" t="s">
         <v>502</v>
@@ -12183,7 +12189,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E28" t="s">
         <v>502</v>
@@ -12191,7 +12197,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E29" t="s">
         <v>502</v>
@@ -12199,7 +12205,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E30" t="s">
         <v>502</v>
@@ -12207,7 +12213,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E31" t="s">
         <v>502</v>
@@ -12215,7 +12221,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E32" t="s">
         <v>502</v>
@@ -12223,7 +12229,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E33" t="s">
         <v>419</v>
@@ -12231,7 +12237,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E34" t="s">
         <v>419</v>
@@ -12331,7 +12337,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E42" t="s">
         <v>390</v>
@@ -12347,7 +12353,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E44" t="s">
         <v>391</v>
@@ -12355,7 +12361,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E45" t="s">
         <v>391</v>
@@ -12384,16 +12390,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
@@ -12402,13 +12408,13 @@
       <c r="B54" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="45" t="s">
         <v>410</v>
       </c>
@@ -12420,13 +12426,13 @@
       <c r="B55" s="46">
         <v>43413</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="69" t="s">
         <v>591</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="45" t="s">
         <v>576</v>
       </c>
@@ -12434,86 +12440,86 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
       <c r="H62" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -12673,15 +12679,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -12690,12 +12696,12 @@
       <c r="B18" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="45" t="s">
         <v>410</v>
       </c>
@@ -12707,12 +12713,12 @@
       <c r="B19" s="46">
         <v>43413</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>592</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="45" t="s">
         <v>576</v>
       </c>
@@ -12737,70 +12743,70 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12808,10 +12814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ADBFB-9A46-478C-BEB8-D55B94070F9B}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12901,7 +12907,7 @@
       <c r="F4" s="38"/>
       <c r="H4" s="6"/>
       <c r="I4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -12922,7 +12928,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>886</v>
+        <v>357</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>359</v>
@@ -12934,33 +12940,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>345</v>
+      </c>
       <c r="D7" s="44"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>345</v>
-      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="44"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>372</v>
+      <c r="A9" s="55" t="s">
+        <v>382</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>359</v>
@@ -12971,52 +12977,52 @@
       <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>382</v>
+      <c r="A10" s="40" t="s">
+        <v>373</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="38" t="s">
+        <v>345</v>
+      </c>
       <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>381</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="38" t="s">
-        <v>345</v>
-      </c>
+      <c r="E11" s="38"/>
       <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="44"/>
+        <v>899</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
         <v>345</v>
       </c>
@@ -13024,47 +13030,45 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>902</v>
+        <v>375</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>359</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="38" t="s">
+        <v>345</v>
+      </c>
       <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>359</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>345</v>
-      </c>
+      <c r="E15" s="38"/>
       <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>359</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
-        <v>345</v>
-      </c>
+      <c r="E16" s="38"/>
       <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>359</v>
@@ -13076,7 +13080,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>359</v>
@@ -13088,10 +13092,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>359</v>
+        <v>380</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>381</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -13099,66 +13103,42 @@
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>359</v>
-      </c>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>381</v>
-      </c>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E26" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>585</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>399</v>
-      </c>
-      <c r="E28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>585</v>
-      </c>
-      <c r="E29" t="s">
         <v>586</v>
       </c>
     </row>
@@ -13169,27 +13149,61 @@
     <hyperlink ref="A3" location="DimHauptprojekt!A1" display="DimHauptProjekt" xr:uid="{A9B02EA7-E603-416D-8D11-495D7C362F23}"/>
     <hyperlink ref="A4" location="DimUnterprojekt!A1" display="DimUnterProjekt" xr:uid="{319939F5-56C8-40B4-92EB-B70FA227528D}"/>
     <hyperlink ref="A5" location="DimArbeitsauftrag!A1" display="DimArbeitsauftrag" xr:uid="{6CD1D1AA-8F9C-4E49-9AF8-857508F0E45E}"/>
-    <hyperlink ref="A7" location="DimWährung!A1" display="DimWährung" xr:uid="{54FDB37B-AE02-42A7-8459-C9EED241A0C0}"/>
-    <hyperlink ref="A27" location="DimBeleg_Planner!A1" display="DimBeleg_Planner" xr:uid="{583A9E1B-4275-4E16-9F52-ADDCD46A6BFA}"/>
-    <hyperlink ref="A8" location="DimFirma!A1" display="DimFirma" xr:uid="{A6EA4B9A-9B40-40B3-A50C-2F3CB257CF16}"/>
-    <hyperlink ref="A9" location="DimKostenstelle!A1" display="DimKostenstelle" xr:uid="{82327F22-70D7-40A7-8F33-1AC6899CF7B5}"/>
-    <hyperlink ref="A11" location="DimProjektErgebnisSchema!A1" display="DimProjektErgebnisSchema" xr:uid="{AAF0074C-BA09-4612-A65C-73E7FEB157DC}"/>
-    <hyperlink ref="A12" location="DimBenutzer!A1" display="DimBenutzer" xr:uid="{3B57711E-A473-4651-B74A-9B81D28697BA}"/>
-    <hyperlink ref="A14" location="FaktSecurity_Projektbeteiligte!A1" display="FaktSecurity_Projektbeteiligte" xr:uid="{95FDBF3F-CD37-4A10-8A4E-EF9510F1C31F}"/>
-    <hyperlink ref="A15" location="FaktZeittransaktionen!A1" display="FaktZeittransaktionen" xr:uid="{67DCD9CB-3A46-4146-BA52-B0CD3963137A}"/>
-    <hyperlink ref="A16" location="FaktProjektUrwerte!A1" display="FaktProjektUrwerte" xr:uid="{0266EF12-29F4-4616-AF9C-19680923C577}"/>
-    <hyperlink ref="A17" location="FaktPlanner!A1" display="FaktPlanner" xr:uid="{7CE1DFB4-A571-41EF-B0A1-F2D7723F9404}"/>
-    <hyperlink ref="A18" location="FaktWährungskurse!A1" display="FaktWährungskurse" xr:uid="{CD0CB276-D2F9-4590-8349-AF114F967B4C}"/>
-    <hyperlink ref="A19" location="FaktBuchungsPerioden!A1" display="FaktBuchungsPerioden" xr:uid="{29B6591A-C897-46C6-89B5-FF2B03BA4E0D}"/>
-    <hyperlink ref="A20" location="FaktHauptBuch!A1" display="FaktHauptBuch" xr:uid="{6ABB78EF-901F-4131-A813-D01BC3FC39E8}"/>
-    <hyperlink ref="A21" location="FaktSecurity_Funktionen!A1" display="FaktSecurity_Funktionen" xr:uid="{6695C9E3-3035-4594-86A1-7E8B4D90D166}"/>
-    <hyperlink ref="A28" location="DimBeleg_Planner!A1" display="DimBeleg_Hauptbuch" xr:uid="{DED70036-87FD-4077-8D60-9F4C18608649}"/>
-    <hyperlink ref="A13" location="DimAbteilung!A1" display="DimAbteilung" xr:uid="{3A8B73DC-3CF0-47C0-9E47-CB7594053F11}"/>
-    <hyperlink ref="A10" location="DimKundeLieferant!A1" display="DimKundeLieferant" xr:uid="{50A97C5F-801B-4269-AA9E-EB891B16580A}"/>
-    <hyperlink ref="A6" location="DimDerivedAktivität!A1" display="DimDerivedAktivität" xr:uid="{CA0EA2A9-CD8B-498B-8AED-BC3D532A3194}"/>
+    <hyperlink ref="A6" location="DimWährung!A1" display="DimWährung" xr:uid="{54FDB37B-AE02-42A7-8459-C9EED241A0C0}"/>
+    <hyperlink ref="A25" location="DimBeleg_Planner!A1" display="DimBeleg_Planner" xr:uid="{583A9E1B-4275-4E16-9F52-ADDCD46A6BFA}"/>
+    <hyperlink ref="A7" location="DimFirma!A1" display="DimFirma" xr:uid="{A6EA4B9A-9B40-40B3-A50C-2F3CB257CF16}"/>
+    <hyperlink ref="A8" location="DimKostenstelle!A1" display="DimKostenstelle" xr:uid="{82327F22-70D7-40A7-8F33-1AC6899CF7B5}"/>
+    <hyperlink ref="A10" location="DimProjektErgebnisSchema!A1" display="DimProjektErgebnisSchema" xr:uid="{AAF0074C-BA09-4612-A65C-73E7FEB157DC}"/>
+    <hyperlink ref="A11" location="DimBenutzer!A1" display="DimBenutzer" xr:uid="{3B57711E-A473-4651-B74A-9B81D28697BA}"/>
+    <hyperlink ref="A12" location="FaktSecurity_Projektbeteiligte!A1" display="FaktSecurity_Projektbeteiligte" xr:uid="{95FDBF3F-CD37-4A10-8A4E-EF9510F1C31F}"/>
+    <hyperlink ref="A13" location="FaktZeittransaktionen!A1" display="FaktZeittransaktionen" xr:uid="{67DCD9CB-3A46-4146-BA52-B0CD3963137A}"/>
+    <hyperlink ref="A14" location="FaktProjektUrwerte!A1" display="FaktProjektUrwerte" xr:uid="{0266EF12-29F4-4616-AF9C-19680923C577}"/>
+    <hyperlink ref="A15" location="FaktPlanner!A1" display="FaktPlanner" xr:uid="{7CE1DFB4-A571-41EF-B0A1-F2D7723F9404}"/>
+    <hyperlink ref="A16" location="FaktWährungskurse!A1" display="FaktWährungskurse" xr:uid="{CD0CB276-D2F9-4590-8349-AF114F967B4C}"/>
+    <hyperlink ref="A17" location="FaktBuchungsPerioden!A1" display="FaktBuchungsPerioden" xr:uid="{29B6591A-C897-46C6-89B5-FF2B03BA4E0D}"/>
+    <hyperlink ref="A18" location="FaktHauptBuch!A1" display="FaktHauptBuch" xr:uid="{6ABB78EF-901F-4131-A813-D01BC3FC39E8}"/>
+    <hyperlink ref="A19" location="FaktSecurity_Funktionen!A1" display="FaktSecurity_Funktionen" xr:uid="{6695C9E3-3035-4594-86A1-7E8B4D90D166}"/>
+    <hyperlink ref="A26" location="DimBeleg_Planner!A1" display="DimBeleg_Hauptbuch" xr:uid="{DED70036-87FD-4077-8D60-9F4C18608649}"/>
+    <hyperlink ref="A9" location="DimKundeLieferant!A1" display="DimKundeLieferant" xr:uid="{50A97C5F-801B-4269-AA9E-EB891B16580A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ABE343-731F-490B-BA5F-6864F7D8CC9B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087DAC5C-82CB-4153-8F8F-FBCCF041B7FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F70789B-6895-43EB-9410-47E5C7AAA827}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13218,20 +13232,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13478,7 +13492,7 @@
       <c r="J13" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="65" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -13503,7 +13517,7 @@
       <c r="J14" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K14" s="67"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="4" t="s">
         <v>257</v>
       </c>
@@ -13526,7 +13540,7 @@
       <c r="J15" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K15" s="67"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="4" t="s">
         <v>257</v>
       </c>
@@ -13687,24 +13701,24 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E24" t="s">
         <v>390</v>
       </c>
       <c r="G24" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L24" s="6"/>
     </row>
@@ -13739,16 +13753,16 @@
       <c r="F27" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
@@ -13757,13 +13771,13 @@
       <c r="B33" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="45" t="s">
         <v>410</v>
       </c>
@@ -13771,90 +13785,85 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="72"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C35:G35"/>
@@ -13862,6 +13871,11 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -13896,20 +13910,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13991,7 +14005,7 @@
         <v>89</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I6" t="s">
         <v>91</v>
@@ -14014,7 +14028,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I7" t="s">
         <v>114</v>
@@ -14037,7 +14051,7 @@
         <v>62</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I8" t="s">
         <v>118</v>
@@ -14060,7 +14074,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I9" t="s">
         <v>115</v>
@@ -14081,7 +14095,7 @@
         <v>106</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I10" t="s">
         <v>116</v>
@@ -14090,7 +14104,7 @@
         <v>215</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -14104,13 +14118,13 @@
         <v>64</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I11" t="s">
         <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -14124,7 +14138,7 @@
         <v>65</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I12" t="s">
         <v>119</v>
@@ -14147,7 +14161,7 @@
         <v>66</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I13" t="s">
         <v>120</v>
@@ -14170,7 +14184,7 @@
         <v>67</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I14" t="s">
         <v>121</v>
@@ -14190,7 +14204,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I15" t="s">
         <v>122</v>
@@ -14207,7 +14221,7 @@
         <v>69</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I16" t="s">
         <v>123</v>
@@ -14216,7 +14230,7 @@
         <v>124</v>
       </c>
       <c r="K16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -14230,7 +14244,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I17" t="s">
         <v>123</v>
@@ -14239,7 +14253,7 @@
         <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -14253,7 +14267,7 @@
         <v>71</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I18" t="s">
         <v>125</v>
@@ -14297,13 +14311,13 @@
         <v>73</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I20" s="2">
         <v>235148</v>
       </c>
       <c r="K20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -14317,7 +14331,7 @@
         <v>74</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I21" t="s">
         <v>127</v>
@@ -14326,7 +14340,7 @@
         <v>128</v>
       </c>
       <c r="K21" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -14340,7 +14354,7 @@
         <v>75</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -14349,7 +14363,7 @@
         <v>267</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
@@ -14384,13 +14398,13 @@
         <v>77</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I24" t="s">
         <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -14404,13 +14418,13 @@
         <v>78</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I25" t="s">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -14424,13 +14438,13 @@
         <v>79</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I26" s="2">
         <v>8854</v>
       </c>
       <c r="K26" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -14444,13 +14458,13 @@
         <v>80</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I27" t="s">
         <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -14461,10 +14475,10 @@
         <v>390</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -14475,10 +14489,10 @@
         <v>391</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -14489,10 +14503,10 @@
         <v>390</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -14503,10 +14517,10 @@
         <v>391</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -14517,10 +14531,10 @@
         <v>390</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -14531,10 +14545,10 @@
         <v>391</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -14545,10 +14559,10 @@
         <v>390</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K34" s="61" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -14559,10 +14573,10 @@
         <v>391</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -14573,10 +14587,10 @@
         <v>390</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -14587,10 +14601,10 @@
         <v>391</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -14601,10 +14615,10 @@
         <v>390</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -14615,10 +14629,10 @@
         <v>391</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -14629,10 +14643,10 @@
         <v>390</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -14643,10 +14657,10 @@
         <v>391</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K41" s="61" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -14657,10 +14671,10 @@
         <v>390</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K42" s="61" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -14671,10 +14685,10 @@
         <v>391</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K43" s="61" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -14685,10 +14699,10 @@
         <v>390</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K44" s="61" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -14699,10 +14713,10 @@
         <v>391</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K45" s="61" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -14713,10 +14727,10 @@
         <v>390</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K46" s="61" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -14727,10 +14741,10 @@
         <v>391</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K47" s="61" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -14741,10 +14755,10 @@
         <v>390</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K48" s="61" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -14755,10 +14769,10 @@
         <v>391</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -14772,18 +14786,18 @@
         <v>153</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I50" t="s">
         <v>91</v>
       </c>
       <c r="K50" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>391</v>
@@ -14792,24 +14806,24 @@
         <v>81</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="52" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K52" s="62" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -14859,7 +14873,7 @@
         <v>107</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I55" t="s">
         <v>132</v>
@@ -14868,7 +14882,7 @@
         <v>271</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -14882,7 +14896,7 @@
         <v>108</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I56" t="s">
         <v>134</v>
@@ -14891,7 +14905,7 @@
         <v>271</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -14905,7 +14919,7 @@
         <v>108</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I57" t="s">
         <v>133</v>
@@ -15118,7 +15132,7 @@
         <v>154</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I68" t="s">
         <v>155</v>
@@ -15127,7 +15141,7 @@
         <v>156</v>
       </c>
       <c r="K68" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -15236,23 +15250,23 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B76" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
@@ -15261,13 +15275,13 @@
       <c r="B108" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
       <c r="H108" s="45" t="s">
         <v>410</v>
       </c>
@@ -15279,90 +15293,85 @@
       <c r="B109" s="46">
         <v>43413</v>
       </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="72"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
       <c r="H109" s="45"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="45"/>
       <c r="B110" s="46"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
       <c r="H110" s="45"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="45"/>
       <c r="B111" s="46"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
       <c r="H111" s="45"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="45"/>
       <c r="B112" s="46"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
       <c r="H112" s="45"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="45"/>
       <c r="B113" s="46"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="45"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="45"/>
       <c r="B114" s="46"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
       <c r="H114" s="45"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="45"/>
       <c r="B115" s="46"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
       <c r="H115" s="45"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="45"/>
       <c r="B116" s="46"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
       <c r="H116" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="C108:G108"/>
     <mergeCell ref="C114:G114"/>
     <mergeCell ref="C115:G115"/>
     <mergeCell ref="C116:G116"/>
@@ -15371,6 +15380,11 @@
     <mergeCell ref="C111:G111"/>
     <mergeCell ref="C112:G112"/>
     <mergeCell ref="C113:G113"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="C108:G108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15402,20 +15416,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15497,7 +15511,7 @@
         <v>89</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I6" t="s">
         <v>91</v>
@@ -15523,7 +15537,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I7" t="s">
         <v>90</v>
@@ -15546,7 +15560,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I8" t="s">
         <v>92</v>
@@ -15569,7 +15583,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I9" t="s">
         <v>94</v>
@@ -15592,7 +15606,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I10" t="s">
         <v>94</v>
@@ -15604,7 +15618,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E11" t="s">
         <v>461</v>
@@ -15633,7 +15647,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I12" t="s">
         <v>96</v>
@@ -15653,7 +15667,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I13" t="s">
         <v>97</v>
@@ -15670,7 +15684,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I14" t="s">
         <v>98</v>
@@ -15690,13 +15704,13 @@
         <v>86</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I15" t="s">
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -15710,13 +15724,13 @@
         <v>87</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I16" t="s">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -15727,10 +15741,10 @@
         <v>390</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="K17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -15741,10 +15755,10 @@
         <v>391</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -15755,10 +15769,10 @@
         <v>390</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -15769,10 +15783,10 @@
         <v>391</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -15783,10 +15797,10 @@
         <v>390</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -15797,10 +15811,10 @@
         <v>391</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -15811,10 +15825,10 @@
         <v>390</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -15825,10 +15839,10 @@
         <v>391</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -15839,10 +15853,10 @@
         <v>390</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -15853,10 +15867,10 @@
         <v>391</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -15867,10 +15881,10 @@
         <v>390</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="K27" s="61" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -15881,10 +15895,10 @@
         <v>391</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -15895,10 +15909,10 @@
         <v>390</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -15909,10 +15923,10 @@
         <v>391</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -15923,10 +15937,10 @@
         <v>390</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -15937,10 +15951,10 @@
         <v>391</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -15951,10 +15965,10 @@
         <v>390</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -15965,10 +15979,10 @@
         <v>391</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K34" s="61" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -15979,10 +15993,10 @@
         <v>390</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -15993,10 +16007,10 @@
         <v>391</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -16007,10 +16021,10 @@
         <v>390</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -16021,10 +16035,10 @@
         <v>391</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -16035,10 +16049,10 @@
         <v>390</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -16049,15 +16063,15 @@
         <v>391</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E41" t="s">
         <v>470</v>
@@ -16066,25 +16080,25 @@
         <v>17</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>219</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="62" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -16137,23 +16151,23 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>838</v>
+      </c>
+      <c r="B49" t="s">
         <v>840</v>
       </c>
-      <c r="B49" t="s">
-        <v>842</v>
-      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
@@ -16162,13 +16176,13 @@
       <c r="B53" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="45" t="s">
         <v>410</v>
       </c>
@@ -16180,13 +16194,13 @@
       <c r="B54" s="46">
         <v>43413</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="69" t="s">
         <v>577</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="72"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="71"/>
       <c r="H54" s="45" t="s">
         <v>576</v>
       </c>
@@ -16210,61 +16224,61 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="45"/>
     </row>
   </sheetData>
@@ -16311,20 +16325,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16383,7 +16397,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>202</v>
@@ -16407,13 +16421,13 @@
         <v>89</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I6" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L6" t="s">
         <v>261</v>
@@ -16437,7 +16451,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I7" t="s">
         <v>90</v>
@@ -16464,7 +16478,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I8" t="s">
         <v>92</v>
@@ -16475,7 +16489,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C9" t="s">
         <v>345</v>
@@ -16487,13 +16501,13 @@
         <v>102</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I9" t="s">
         <v>104</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -16507,13 +16521,13 @@
         <v>103</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I10" t="s">
         <v>105</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -16526,7 +16540,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D12" t="s">
         <v>345</v>
@@ -16537,7 +16551,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D13" t="s">
         <v>345</v>
@@ -16545,15 +16559,15 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="61" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C16" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="61" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -16561,28 +16575,28 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="61" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="61" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="61"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
@@ -16591,13 +16605,13 @@
       <c r="B41" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="45" t="s">
         <v>410</v>
       </c>
@@ -16609,13 +16623,13 @@
       <c r="B42" s="46">
         <v>43451</v>
       </c>
-      <c r="C42" s="70" t="s">
-        <v>878</v>
-      </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="72"/>
+      <c r="C42" s="69" t="s">
+        <v>876</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="45" t="s">
         <v>576</v>
       </c>
@@ -16627,13 +16641,13 @@
       <c r="B43" s="46">
         <v>43451</v>
       </c>
-      <c r="C43" s="70" t="s">
-        <v>882</v>
-      </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="69" t="s">
+        <v>880</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="45" t="s">
         <v>576</v>
       </c>
@@ -16645,13 +16659,13 @@
       <c r="B44" s="46">
         <v>43452</v>
       </c>
-      <c r="C44" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
+      <c r="C44" s="69" t="s">
+        <v>885</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="45" t="s">
         <v>576</v>
       </c>
@@ -16659,66 +16673,66 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16747,19 +16761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16845,7 +16859,7 @@
         <v>390</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -16859,7 +16873,7 @@
         <v>390</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -16873,12 +16887,12 @@
         <v>461</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D11" t="s">
         <v>345</v>
@@ -16887,12 +16901,12 @@
         <v>392</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D12" t="s">
         <v>345</v>
@@ -16914,25 +16928,25 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
@@ -16941,13 +16955,13 @@
       <c r="B42" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="45" t="s">
         <v>410</v>
       </c>
@@ -16959,13 +16973,13 @@
       <c r="B43" s="46">
         <v>43451</v>
       </c>
-      <c r="C43" s="70" t="s">
-        <v>879</v>
-      </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="69" t="s">
+        <v>877</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="45" t="s">
         <v>576</v>
       </c>
@@ -16977,13 +16991,13 @@
       <c r="B44" s="46">
         <v>43451</v>
       </c>
-      <c r="C44" s="70" t="s">
-        <v>880</v>
-      </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
+      <c r="C44" s="69" t="s">
+        <v>878</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="45" t="s">
         <v>576</v>
       </c>
@@ -16996,7 +17010,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D45" s="75"/>
       <c r="E45" s="75"/>
@@ -17009,66 +17023,66 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17098,18 +17112,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17170,7 +17184,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>345</v>
@@ -17179,26 +17193,26 @@
         <v>390</v>
       </c>
       <c r="H6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E7" t="s">
         <v>481</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -17210,16 +17224,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
@@ -17228,13 +17242,13 @@
       <c r="B42" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="45" t="s">
         <v>410</v>
       </c>
@@ -17246,71 +17260,71 @@
       <c r="B43" s="46">
         <v>43413</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="45"/>
     </row>
   </sheetData>
@@ -17333,15 +17347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A121D6DBB1CA1C45BEE80147747670C7" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6ac7a12dfa4c383dcaef4cde07ca7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -17455,6 +17460,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17462,14 +17476,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{705A5280-C6D8-488E-AB5C-8F75343CF622}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17485,6 +17491,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDCB53E-583D-48DE-8651-9BA4BDF8E78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8160B1-C9B6-48CB-B1C9-C1D279B1DD82}">
   <ds:schemaRefs>
